--- a/data/MetalliCan/pre_cleaned_data/energy_df.xlsx
+++ b/data/MetalliCan/pre_cleaned_data/energy_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="333">
   <si>
     <t>technosphere_id</t>
   </si>
@@ -67,940 +67,949 @@
     <t>TECH-857b7b89-2023-1</t>
   </si>
   <si>
+    <t>TECH-8eb8be0d-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-GRP-147b3123-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-1</t>
+  </si>
+  <si>
     <t>TECH-857b7b89-2023-2</t>
   </si>
   <si>
+    <t>TECH-6dc537e6-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-fefeaee4-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-8eb8be0d-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-fefeaee4-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0d911886-2023-1</t>
+  </si>
+  <si>
     <t>TECH-857b7b89-2023-3</t>
   </si>
   <si>
+    <t>TECH-e7e6a960-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-599152a0-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-aeafbb59-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-cb85213a-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-6dc537e6-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-6b4800fe-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-c0660aec-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-687b8c8d-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-9de9bb0d-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-a3c56a83-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-e51eda66-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-1f126a43-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0a2c0d69-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-8b0264c9-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-ed23117f-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-fefeaee4-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-aa76f6f2-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0d911886-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-0aadf28f-2023-6</t>
+  </si>
+  <si>
+    <t>TECH-8eb8be0d-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-7f050560-2024-1</t>
+  </si>
+  <si>
+    <t>TECH-b64bae7a-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-GRP-14bfbb82-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-GRP-a13779f8-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-GRP-147b3123-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-7</t>
+  </si>
+  <si>
+    <t>TECH-7607a50e-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-b86f7d07-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-44857446-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-f9e41c2a-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-f9e41c2a-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-GRP-147b3123-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-599152a0-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-0aadf28f-2023-7</t>
+  </si>
+  <si>
+    <t>TECH-GRP-a13779f8-2023-2</t>
+  </si>
+  <si>
     <t>TECH-857b7b89-2023-4</t>
   </si>
   <si>
+    <t>TECH-cb85213a-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-6dc537e6-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-687b8c8d-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-9de9bb0d-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0a2c0d69-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-8b0264c9-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-fefeaee4-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-aa76f6f2-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0d911886-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-8eb8be0d-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-GRP-14bfbb82-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-7607a50e-2023-2</t>
+  </si>
+  <si>
     <t>TECH-857b7b89-2023-5</t>
   </si>
   <si>
+    <t>TECH-e7e6a960-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-aeafbb59-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-cb85213a-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-6dc537e6-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-6b4800fe-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-c0660aec-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-687b8c8d-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-9de9bb0d-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-f9e41c2a-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-e51eda66-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-1f126a43-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-fefeaee4-2023-6</t>
+  </si>
+  <si>
+    <t>TECH-aa76f6f2-2023-6</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0d911886-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-8eb8be0d-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-7f050560-2024-2</t>
+  </si>
+  <si>
+    <t>TECH-b64bae7a-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-GRP-14bfbb82-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-GRP-147b3123-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-8</t>
+  </si>
+  <si>
+    <t>TECH-7607a50e-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-6e9be24e-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-b86f7d07-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-44857446-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-a3c56a83-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-ed23117f-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-9</t>
+  </si>
+  <si>
+    <t>TECH-GRP-147b3123-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-dd723db4-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-aeafbb59-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-c0660aec-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-e51eda66-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-1f126a43-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0a2c0d69-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-8b0264c9-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-ed23117f-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-aa76f6f2-2023-7</t>
+  </si>
+  <si>
+    <t>TECH-0aadf28f-2023-8</t>
+  </si>
+  <si>
     <t>TECH-857b7b89-2023-6</t>
   </si>
   <si>
+    <t>TECH-599152a0-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-cb85213a-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-6dc537e6-2023-6</t>
+  </si>
+  <si>
+    <t>TECH-6b4800fe-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-687b8c8d-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-9de9bb0d-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-f9e41c2a-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-ed23117f-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-fefeaee4-2023-7</t>
+  </si>
+  <si>
+    <t>TECH-aa76f6f2-2023-9</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0d911886-2023-6</t>
+  </si>
+  <si>
+    <t>TECH-0aadf28f-2023-10</t>
+  </si>
+  <si>
+    <t>TECH-8eb8be0d-2023-6</t>
+  </si>
+  <si>
+    <t>TECH-7f050560-2024-3</t>
+  </si>
+  <si>
+    <t>TECH-b64bae7a-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-GRP-a13779f8-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-GRP-147b3123-2023-6</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-12</t>
+  </si>
+  <si>
+    <t>TECH-7607a50e-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-b86f7d07-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-44857446-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-e7e6a960-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-aeafbb59-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-c0660aec-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-e51eda66-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-1f126a43-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0a2c0d69-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-8b0264c9-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-7f050560-2024-4</t>
+  </si>
+  <si>
+    <t>TECH-f9e41c2a-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-f9e41c2a-2023-6</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0a2c0d69-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-7607a50e-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-e7e6a960-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-6b4800fe-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-c0660aec-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-9de9bb0d-2023-6</t>
+  </si>
+  <si>
+    <t>TECH-f9e41c2a-2023-7</t>
+  </si>
+  <si>
+    <t>TECH-e51eda66-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-1f126a43-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-aa76f6f2-2023-11</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0d911886-2023-11</t>
+  </si>
+  <si>
+    <t>TECH-7f050560-2024-5</t>
+  </si>
+  <si>
+    <t>TECH-GRP-147b3123-2023-7</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-17</t>
+  </si>
+  <si>
+    <t>TECH-7607a50e-2023-6</t>
+  </si>
+  <si>
+    <t>TECH-6e9be24e-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-b64bae7a-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-GRP-14bfbb82-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-a3c56a83-2023-3</t>
+  </si>
+  <si>
     <t>TECH-857b7b89-2023-7</t>
   </si>
   <si>
+    <t>TECH-e7e6a960-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-b86f7d07-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-599152a0-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-aeafbb59-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-cb85213a-2023-6</t>
+  </si>
+  <si>
+    <t>TECH-6dc537e6-2023-11</t>
+  </si>
+  <si>
+    <t>TECH-6b4800fe-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-687b8c8d-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-44857446-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-1f126a43-2023-6</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0a2c0d69-2023-6</t>
+  </si>
+  <si>
+    <t>TECH-ed23117f-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-fefeaee4-2023-12</t>
+  </si>
+  <si>
+    <t>TECH-aa76f6f2-2023-13</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0d911886-2023-13</t>
+  </si>
+  <si>
+    <t>TECH-0aadf28f-2023-12</t>
+  </si>
+  <si>
+    <t>TECH-8eb8be0d-2023-7</t>
+  </si>
+  <si>
+    <t>TECH-b64bae7a-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-GRP-14bfbb82-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-GRP-a13779f8-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-18</t>
+  </si>
+  <si>
+    <t>TECH-fefeaee4-2023-14</t>
+  </si>
+  <si>
     <t>TECH-857b7b89-2023-8</t>
   </si>
   <si>
-    <t>TECH-e7e6a960-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-e7e6a960-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-e7e6a960-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-e7e6a960-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-e7e6a960-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-dd723db4-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-b86f7d07-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-b86f7d07-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-b86f7d07-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-b86f7d07-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-599152a0-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-599152a0-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-599152a0-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-599152a0-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-aeafbb59-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-aeafbb59-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-aeafbb59-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-aeafbb59-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-aeafbb59-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-cb85213a-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-cb85213a-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-cb85213a-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-cb85213a-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-cb85213a-2023-6</t>
-  </si>
-  <si>
-    <t>TECH-6dc537e6-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-6dc537e6-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-6dc537e6-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-6dc537e6-2023-9</t>
-  </si>
-  <si>
-    <t>TECH-6dc537e6-2023-13</t>
-  </si>
-  <si>
-    <t>TECH-6dc537e6-2023-14</t>
-  </si>
-  <si>
-    <t>TECH-6b4800fe-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-6b4800fe-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-6b4800fe-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-6b4800fe-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-6b4800fe-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-c0660aec-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-c0660aec-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-c0660aec-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-c0660aec-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-c0660aec-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-6e9be24e-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-6e9be24e-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-687b8c8d-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-687b8c8d-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-687b8c8d-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-687b8c8d-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-687b8c8d-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-44857446-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-44857446-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-44857446-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-44857446-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-9de9bb0d-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-9de9bb0d-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-9de9bb0d-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-9de9bb0d-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-9de9bb0d-2023-6</t>
-  </si>
-  <si>
-    <t>TECH-a3c56a83-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-a3c56a83-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-a3c56a83-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-f9e41c2a-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-f9e41c2a-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-f9e41c2a-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-f9e41c2a-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-f9e41c2a-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-f9e41c2a-2023-6</t>
-  </si>
-  <si>
-    <t>TECH-f9e41c2a-2023-7</t>
-  </si>
-  <si>
-    <t>TECH-e51eda66-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-e51eda66-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-e51eda66-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-e51eda66-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-e51eda66-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-1f126a43-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-1f126a43-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-1f126a43-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-1f126a43-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-1f126a43-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-1f126a43-2023-6</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0a2c0d69-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0a2c0d69-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0a2c0d69-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0a2c0d69-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0a2c0d69-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0a2c0d69-2023-6</t>
-  </si>
-  <si>
-    <t>TECH-8b0264c9-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-8b0264c9-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-8b0264c9-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-8b0264c9-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-ed23117f-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-ed23117f-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-ed23117f-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-ed23117f-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-ed23117f-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-fefeaee4-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-fefeaee4-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-fefeaee4-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-fefeaee4-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-fefeaee4-2023-10</t>
-  </si>
-  <si>
-    <t>TECH-fefeaee4-2023-12</t>
-  </si>
-  <si>
-    <t>TECH-fefeaee4-2023-14</t>
-  </si>
-  <si>
-    <t>TECH-fefeaee4-2023-15</t>
-  </si>
-  <si>
-    <t>TECH-aa76f6f2-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-aa76f6f2-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-aa76f6f2-2023-6</t>
-  </si>
-  <si>
-    <t>TECH-aa76f6f2-2023-7</t>
-  </si>
-  <si>
-    <t>TECH-aa76f6f2-2023-9</t>
-  </si>
-  <si>
-    <t>TECH-aa76f6f2-2023-11</t>
-  </si>
-  <si>
-    <t>TECH-aa76f6f2-2023-13</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0d911886-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0d911886-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0d911886-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0d911886-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0d911886-2023-10</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0d911886-2023-12</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0d911886-2023-16</t>
-  </si>
-  <si>
-    <t>TECH-0aadf28f-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-0aadf28f-2023-7</t>
-  </si>
-  <si>
-    <t>TECH-0aadf28f-2023-8</t>
-  </si>
-  <si>
-    <t>TECH-0aadf28f-2023-10</t>
-  </si>
-  <si>
-    <t>TECH-0aadf28f-2023-12</t>
-  </si>
-  <si>
-    <t>TECH-8eb8be0d-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-8eb8be0d-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-8eb8be0d-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-8eb8be0d-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-8eb8be0d-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-8eb8be0d-2023-6</t>
-  </si>
-  <si>
-    <t>TECH-8eb8be0d-2023-7</t>
-  </si>
-  <si>
-    <t>TECH-7f050560-2024-1</t>
-  </si>
-  <si>
-    <t>TECH-7f050560-2024-2</t>
-  </si>
-  <si>
-    <t>TECH-7f050560-2024-3</t>
-  </si>
-  <si>
-    <t>TECH-7f050560-2024-4</t>
-  </si>
-  <si>
-    <t>TECH-7f050560-2024-5</t>
-  </si>
-  <si>
-    <t>TECH-b64bae7a-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-b64bae7a-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-b64bae7a-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-b64bae7a-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-b64bae7a-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-GRP-14bfbb82-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-GRP-14bfbb82-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-GRP-14bfbb82-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-GRP-14bfbb82-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-GRP-14bfbb82-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-GRP-a13779f8-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-GRP-a13779f8-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-GRP-a13779f8-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-GRP-a13779f8-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-GRP-147b3123-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-GRP-147b3123-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-GRP-147b3123-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-GRP-147b3123-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-GRP-147b3123-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-GRP-147b3123-2023-6</t>
-  </si>
-  <si>
-    <t>TECH-GRP-147b3123-2023-7</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-8</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-9</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-12</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-17</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-18</t>
-  </si>
-  <si>
-    <t>TECH-7607a50e-2023-1</t>
-  </si>
-  <si>
-    <t>TECH-7607a50e-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-7607a50e-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-7607a50e-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-7607a50e-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-7607a50e-2023-6</t>
-  </si>
-  <si>
     <t>Energy</t>
   </si>
   <si>
     <t>Acetylene</t>
   </si>
   <si>
+    <t>Ammonium nitrate</t>
+  </si>
+  <si>
+    <t>ANFO</t>
+  </si>
+  <si>
     <t>Aviation fuel</t>
   </si>
   <si>
+    <t>Biodiesel</t>
+  </si>
+  <si>
     <t>Diesel</t>
   </si>
   <si>
+    <t>Diesel|Mobile equipment</t>
+  </si>
+  <si>
+    <t>Diesel|Stationary equipment</t>
+  </si>
+  <si>
+    <t>Dynamite</t>
+  </si>
+  <si>
+    <t>Electricity consumption</t>
+  </si>
+  <si>
+    <t>Electricity consumption|Generated on-site</t>
+  </si>
+  <si>
+    <t>Electricity consumption|Grid electricity</t>
+  </si>
+  <si>
+    <t>Electricity consumption|Non-renewable electricity use</t>
+  </si>
+  <si>
+    <t>Electricity consumption|Not specified</t>
+  </si>
+  <si>
+    <t>Emulsion ANFO</t>
+  </si>
+  <si>
+    <t>Emulsions</t>
+  </si>
+  <si>
+    <t>Energy use</t>
+  </si>
+  <si>
+    <t>Explosives</t>
+  </si>
+  <si>
     <t>Gasoline</t>
   </si>
   <si>
+    <t>Gasoline|Mobile equipment</t>
+  </si>
+  <si>
+    <t>Light Fuel &amp; Gasoline</t>
+  </si>
+  <si>
+    <t>LPG</t>
+  </si>
+  <si>
+    <t>LPG|Mobile equipment</t>
+  </si>
+  <si>
+    <t>LPG|Stationary equipment</t>
+  </si>
+  <si>
+    <t>Lubricating Oils &amp; Greases</t>
+  </si>
+  <si>
+    <t>Naphta</t>
+  </si>
+  <si>
+    <t>Natural gas</t>
+  </si>
+  <si>
+    <t>Non-renewable fuel use</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Petrol</t>
+  </si>
+  <si>
     <t>Propane</t>
   </si>
   <si>
+    <t>Solar</t>
+  </si>
+  <si>
     <t>Used oil</t>
   </si>
   <si>
-    <t>Electricity consumption|Grid electricity</t>
-  </si>
-  <si>
-    <t>Electricity consumption|Generated on-site</t>
-  </si>
-  <si>
-    <t>Light Fuel &amp; Gasoline</t>
-  </si>
-  <si>
-    <t>Natural gas</t>
-  </si>
-  <si>
-    <t>Energy use</t>
-  </si>
-  <si>
-    <t>Diesel|Mobile equipment</t>
-  </si>
-  <si>
-    <t>Gasoline|Mobile equipment</t>
-  </si>
-  <si>
-    <t>Electricity consumption|Not specified</t>
-  </si>
-  <si>
-    <t>Electricity consumption</t>
-  </si>
-  <si>
-    <t>Explosives</t>
-  </si>
-  <si>
-    <t>Electricity consumption|Non-renewable electricity use</t>
-  </si>
-  <si>
-    <t>Non-renewable fuel use</t>
-  </si>
-  <si>
-    <t>Petrol</t>
-  </si>
-  <si>
-    <t>Diesel|Stationary equipment</t>
-  </si>
-  <si>
-    <t>LPG|Mobile equipment</t>
-  </si>
-  <si>
-    <t>LPG|Stationary equipment</t>
-  </si>
-  <si>
-    <t>Lubricating Oils &amp; Greases</t>
-  </si>
-  <si>
-    <t>Biodiesel</t>
-  </si>
-  <si>
-    <t>Solar</t>
-  </si>
-  <si>
-    <t>LPG</t>
-  </si>
-  <si>
-    <t>Oil</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Ammonium nitrate</t>
-  </si>
-  <si>
-    <t>Dynamite</t>
-  </si>
-  <si>
-    <t>Emulsions</t>
-  </si>
-  <si>
-    <t>ANFO</t>
-  </si>
-  <si>
-    <t>Emulsion ANFO</t>
-  </si>
-  <si>
-    <t>Naphta</t>
-  </si>
-  <si>
     <t>GJ</t>
   </si>
   <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>kl</t>
+  </si>
+  <si>
+    <t>tCO2eq</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>gallons</t>
+  </si>
+  <si>
+    <t>MWh</t>
+  </si>
+  <si>
     <t>kWh</t>
   </si>
   <si>
-    <t>MWh</t>
-  </si>
-  <si>
-    <t>gallons</t>
-  </si>
-  <si>
-    <t>TJ</t>
-  </si>
-  <si>
-    <t>kl</t>
+    <t>GWh</t>
+  </si>
+  <si>
+    <t>kg</t>
   </si>
   <si>
     <t>m3</t>
   </si>
   <si>
-    <t>GWh</t>
-  </si>
-  <si>
-    <t>tCO2eq</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>kg</t>
+    <t>Explosives, treated as energy consumption</t>
+  </si>
+  <si>
+    <t>Share of primary energy source derived from the all group</t>
+  </si>
+  <si>
+    <t>Given in MW in the Excel file but does not make sense</t>
+  </si>
+  <si>
+    <t>62% come from the grid.</t>
   </si>
   <si>
     <t>No decomposition per energy type</t>
   </si>
   <si>
-    <t>Share of primary energy source derived from the all group</t>
-  </si>
-  <si>
-    <t>Given in MW in the Excel file but does not make sense</t>
+    <t>Expressed initially in kl</t>
   </si>
   <si>
     <t>Other types are electricity, diesel, natural gas, propane</t>
   </si>
   <si>
-    <t>Explosives, treated as energy consumption</t>
+    <t>Initially in tCO2eq.</t>
   </si>
   <si>
     <t>BC-MAIN-857b7b89</t>
   </si>
   <si>
+    <t>BC-MAIN-8eb8be0d</t>
+  </si>
+  <si>
+    <t>QC-MAIN-02884fb5</t>
+  </si>
+  <si>
+    <t>QC-MAIN-6dc537e6</t>
+  </si>
+  <si>
+    <t>ON-MAIN-fefeaee4</t>
+  </si>
+  <si>
     <t>QC-MAIN-e7e6a960</t>
   </si>
   <si>
+    <t>BC-MAIN-599152a0</t>
+  </si>
+  <si>
+    <t>ON-MAIN-aeafbb59</t>
+  </si>
+  <si>
+    <t>ON-MAIN-cb85213a</t>
+  </si>
+  <si>
+    <t>BC-MAIN-6b4800fe</t>
+  </si>
+  <si>
+    <t>QC-MAIN-c0660aec</t>
+  </si>
+  <si>
+    <t>ON-MAIN-687b8c8d</t>
+  </si>
+  <si>
+    <t>QC-MAIN-9de9bb0d</t>
+  </si>
+  <si>
+    <t>ON-MAIN-a3c56a83</t>
+  </si>
+  <si>
+    <t>QC-MAIN-e51eda66</t>
+  </si>
+  <si>
+    <t>ON-MAIN-1f126a43</t>
+  </si>
+  <si>
+    <t>NU-MAIN-8b0264c9</t>
+  </si>
+  <si>
+    <t>BC-MAIN-ed23117f</t>
+  </si>
+  <si>
+    <t>BC-MAIN-aa76f6f2</t>
+  </si>
+  <si>
+    <t>ON-MAIN-0aadf28f</t>
+  </si>
+  <si>
+    <t>ON-MAIN-7f050560</t>
+  </si>
+  <si>
+    <t>NL-MAIN-b64bae7a</t>
+  </si>
+  <si>
+    <t>ON-MAIN-7607a50e</t>
+  </si>
+  <si>
+    <t>QC-MAIN-b86f7d07</t>
+  </si>
+  <si>
+    <t>YT-MAIN-44857446</t>
+  </si>
+  <si>
+    <t>QC-MAIN-f9e41c2a</t>
+  </si>
+  <si>
+    <t>ON-MAIN-6e9be24e</t>
+  </si>
+  <si>
     <t>NL-MAIN-dd723db4</t>
   </si>
   <si>
-    <t>QC-MAIN-b86f7d07</t>
-  </si>
-  <si>
-    <t>BC-MAIN-599152a0</t>
-  </si>
-  <si>
-    <t>ON-MAIN-aeafbb59</t>
-  </si>
-  <si>
-    <t>ON-MAIN-cb85213a</t>
-  </si>
-  <si>
-    <t>QC-MAIN-6dc537e6</t>
-  </si>
-  <si>
-    <t>BC-MAIN-6b4800fe</t>
-  </si>
-  <si>
-    <t>QC-MAIN-c0660aec</t>
-  </si>
-  <si>
-    <t>ON-MAIN-6e9be24e</t>
-  </si>
-  <si>
-    <t>ON-MAIN-687b8c8d</t>
-  </si>
-  <si>
-    <t>YT-MAIN-44857446</t>
-  </si>
-  <si>
-    <t>QC-MAIN-9de9bb0d</t>
-  </si>
-  <si>
-    <t>ON-MAIN-a3c56a83</t>
-  </si>
-  <si>
-    <t>QC-MAIN-f9e41c2a</t>
-  </si>
-  <si>
-    <t>QC-MAIN-e51eda66</t>
-  </si>
-  <si>
-    <t>ON-MAIN-1f126a43</t>
-  </si>
-  <si>
-    <t>NU-MAIN-8b0264c9</t>
-  </si>
-  <si>
-    <t>BC-MAIN-ed23117f</t>
-  </si>
-  <si>
-    <t>ON-MAIN-fefeaee4</t>
-  </si>
-  <si>
-    <t>BC-MAIN-aa76f6f2</t>
-  </si>
-  <si>
-    <t>ON-MAIN-0aadf28f</t>
-  </si>
-  <si>
-    <t>BC-MAIN-8eb8be0d</t>
-  </si>
-  <si>
-    <t>ON-MAIN-7f050560</t>
-  </si>
-  <si>
-    <t>NL-MAIN-b64bae7a</t>
-  </si>
-  <si>
-    <t>QC-MAIN-02884fb5</t>
-  </si>
-  <si>
-    <t>ON-MAIN-7607a50e</t>
+    <t>GRP-147b3123</t>
+  </si>
+  <si>
+    <t>GRP-0d911886</t>
   </si>
   <si>
     <t>GRP-0a2c0d69</t>
   </si>
   <si>
-    <t>GRP-0d911886</t>
-  </si>
-  <si>
     <t>GRP-14bfbb82</t>
   </si>
   <si>
     <t>GRP-a13779f8</t>
   </si>
   <si>
-    <t>GRP-147b3123</t>
-  </si>
-  <si>
     <t>CMP-4a434d72</t>
   </si>
   <si>
+    <t>CMP-48a36546</t>
+  </si>
+  <si>
+    <t>CMP-3d0a95b7</t>
+  </si>
+  <si>
     <t>CMP-6265c407</t>
   </si>
   <si>
+    <t>CMP-12afc634</t>
+  </si>
+  <si>
+    <t>CMP-3d2c4955</t>
+  </si>
+  <si>
+    <t>CMP-e35f138c</t>
+  </si>
+  <si>
+    <t>CMP-3a4ccc7f</t>
+  </si>
+  <si>
+    <t>CMP-967076a1</t>
+  </si>
+  <si>
+    <t>CMP-fa032e20</t>
+  </si>
+  <si>
+    <t>CMP-d94be190</t>
+  </si>
+  <si>
+    <t>CMP-ca642bce</t>
+  </si>
+  <si>
+    <t>CMP-8a99044e</t>
+  </si>
+  <si>
+    <t>CMP-4a73c5f8</t>
+  </si>
+  <si>
+    <t>CMP-7e360a1f</t>
+  </si>
+  <si>
+    <t>CMP-64d60fd7</t>
+  </si>
+  <si>
+    <t>CMP-79bcdb91</t>
+  </si>
+  <si>
     <t>CMP-2da4630a</t>
   </si>
   <si>
-    <t>CMP-7e360a1f</t>
-  </si>
-  <si>
-    <t>CMP-12afc634</t>
-  </si>
-  <si>
-    <t>CMP-3d2c4955</t>
-  </si>
-  <si>
-    <t>CMP-e35f138c</t>
-  </si>
-  <si>
-    <t>CMP-79bcdb91</t>
-  </si>
-  <si>
-    <t>CMP-3a4ccc7f</t>
-  </si>
-  <si>
-    <t>CMP-967076a1</t>
-  </si>
-  <si>
-    <t>CMP-64d60fd7</t>
-  </si>
-  <si>
-    <t>CMP-fa032e20</t>
-  </si>
-  <si>
-    <t>CMP-d94be190</t>
-  </si>
-  <si>
-    <t>CMP-ca642bce</t>
-  </si>
-  <si>
-    <t>CMP-8a99044e</t>
-  </si>
-  <si>
-    <t>CMP-4a73c5f8</t>
-  </si>
-  <si>
-    <t>CMP-48a36546</t>
-  </si>
-  <si>
-    <t>CMP-3d0a95b7</t>
-  </si>
-  <si>
     <t>SRC_NewmontCorporation_2023-Performance-data</t>
   </si>
   <si>
+    <t>SRC_PanAmericanSilverCorp_ESG_data_2023</t>
+  </si>
+  <si>
+    <t>SRC_IAMGOLDCorporation_2023_iamgold-esg-performance-data-final_protected</t>
+  </si>
+  <si>
     <t>SRC_AgnicoEagleMinesLimited_2023-Sustainability-Performance_data</t>
   </si>
   <si>
+    <t>SRC_HudbayMineralsInc_Hudbay-2023-Integrated-Annual-Report-Performance-Data</t>
+  </si>
+  <si>
+    <t>SRC_WesdomeGoldMinesLtd._ESG_data_2023</t>
+  </si>
+  <si>
+    <t>SRC_TasekoMinesLimited_ESG_2023</t>
+  </si>
+  <si>
+    <t>SRC_AlamosGoldInc_Data_2023</t>
+  </si>
+  <si>
+    <t>SRC_ImpalaCanadaLtd_ESG_2024</t>
+  </si>
+  <si>
+    <t>SRC_CenterraGoldInc_Data</t>
+  </si>
+  <si>
+    <t>SRC_NewGoldInc_ESG_data_2023</t>
+  </si>
+  <si>
+    <t>SRC_EvolutionMiningLtd_EVN_FY24-ESG-Performance-Data_web</t>
+  </si>
+  <si>
+    <t>SRC_TacoraResourcesInc._SR_2024</t>
+  </si>
+  <si>
+    <t>SRC_SSRMiningInc_ESG_2023</t>
+  </si>
+  <si>
+    <t>SRC_HeclaMiningCompany_SR_2023</t>
+  </si>
+  <si>
+    <t>SRC_EldoradoGold_ESG_2023</t>
+  </si>
+  <si>
+    <t>SRC_TacoraResourcesInc._ESG_2024</t>
+  </si>
+  <si>
+    <t>SRC_BarrickGoldCorporation_Barrick_2023_Performance-Data</t>
+  </si>
+  <si>
     <t>SRC_IronOreCompanyofCanadaInc_SR_2023</t>
   </si>
   <si>
-    <t>SRC_HeclaMiningCompany_SR_2023</t>
-  </si>
-  <si>
-    <t>SRC_HudbayMineralsInc_Hudbay-2023-Integrated-Annual-Report-Performance-Data</t>
-  </si>
-  <si>
-    <t>SRC_WesdomeGoldMinesLtd._ESG_data_2023</t>
-  </si>
-  <si>
-    <t>SRC_TasekoMinesLimited_ESG_2023</t>
-  </si>
-  <si>
-    <t>SRC_BarrickGoldCorporation_Barrick_2023_Performance-Data</t>
-  </si>
-  <si>
-    <t>SRC_AlamosGoldInc_Data_2023</t>
-  </si>
-  <si>
-    <t>SRC_ImpalaCanadaLtd_ESG_2024</t>
-  </si>
-  <si>
-    <t>SRC_EldoradoGold_ESG_2023</t>
-  </si>
-  <si>
-    <t>SRC_CenterraGoldInc_Data</t>
-  </si>
-  <si>
-    <t>SRC_NewGoldInc_ESG_data_2023</t>
-  </si>
-  <si>
-    <t>SRC_EvolutionMiningLtd_EVN_FY24-ESG-Performance-Data_web</t>
-  </si>
-  <si>
-    <t>SRC_TacoraResourcesInc._SR_2024</t>
-  </si>
-  <si>
-    <t>SRC_TacoraResourcesInc._ESG_2024</t>
-  </si>
-  <si>
-    <t>SRC_SSRMiningInc_ESG_2023</t>
-  </si>
-  <si>
-    <t>SRC_PanAmericanSilverCorp_ESG_data_2023</t>
-  </si>
-  <si>
-    <t>SRC_IAMGOLDCorporation_2023_iamgold-esg-performance-data-final_protected</t>
-  </si>
-  <si>
     <t>direct_unit</t>
   </si>
   <si>
     <t>lhv+density</t>
   </si>
   <si>
+    <t>missing_factor</t>
+  </si>
+  <si>
     <t>lhv_factor</t>
   </si>
   <si>
-    <t>missing_factor</t>
-  </si>
-  <si>
     <t>gj→MJ factor=1000.0</t>
   </si>
   <si>
+    <t>tj→MJ factor=1000000.0</t>
+  </si>
+  <si>
+    <t>diesel MJ/kg=43.0, dens=0.835 kg/L</t>
+  </si>
+  <si>
+    <t>No conversion rule for diesel [tco2eq]</t>
+  </si>
+  <si>
+    <t>mwh→MJ factor=3600.0</t>
+  </si>
+  <si>
     <t>kwh→MJ factor=3.6</t>
   </si>
   <si>
-    <t>mwh→MJ factor=3600.0</t>
-  </si>
-  <si>
-    <t>diesel MJ/kg=43.0, dens=0.835 kg/L</t>
+    <t>gwh→MJ factor=3600000.0</t>
+  </si>
+  <si>
+    <t>No LHV for subflow=electricity consumption</t>
+  </si>
+  <si>
+    <t>No conversion rule for explosives [tco2eq]</t>
+  </si>
+  <si>
+    <t>explosives MJ/kg=4.0</t>
   </si>
   <si>
     <t>gasoline MJ/kg=44.0, dens=0.745 kg/L</t>
   </si>
   <si>
+    <t>No conversion rule for gasoline [tco2eq]</t>
+  </si>
+  <si>
     <t>propane MJ/kg=46.4, dens=0.493 kg/L</t>
   </si>
   <si>
-    <t>tj→MJ factor=1000000.0</t>
-  </si>
-  <si>
     <t>natural_gas MJ/m3=38.0</t>
   </si>
   <si>
-    <t>gwh→MJ factor=3600000.0</t>
-  </si>
-  <si>
-    <t>No LHV for subflow=electricity consumption</t>
-  </si>
-  <si>
-    <t>No conversion rule for diesel [tco2eq]</t>
-  </si>
-  <si>
-    <t>No conversion rule for explosives [tco2eq]</t>
-  </si>
-  <si>
-    <t>No conversion rule for gasoline [tco2eq]</t>
-  </si>
-  <si>
     <t>No conversion rule for propane [tco2eq]</t>
-  </si>
-  <si>
-    <t>explosives MJ/kg=4.0</t>
   </si>
   <si>
     <t>MJ</t>
@@ -1437,25 +1446,25 @@
         <v>18.475650648</v>
       </c>
       <c r="H2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="J2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L2">
         <v>18475.650648</v>
       </c>
       <c r="M2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -1472,34 +1481,34 @@
         <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
         <v>224</v>
       </c>
       <c r="F3">
-        <v>72676.1107896</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="J3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L3">
-        <v>72676110.7896</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -1516,34 +1525,34 @@
         <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E4" t="s">
         <v>224</v>
       </c>
       <c r="F4">
-        <v>287042.447231542</v>
-      </c>
-      <c r="H4" t="s">
-        <v>240</v>
+        <v>20.7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>271</v>
       </c>
       <c r="J4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L4">
-        <v>287042447.2315421</v>
+        <v>20700</v>
       </c>
       <c r="M4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -1560,34 +1569,37 @@
         <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E5" t="s">
         <v>224</v>
       </c>
       <c r="F5">
-        <v>13568.45</v>
+        <v>1530.9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>235</v>
       </c>
       <c r="H5" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="J5" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K5" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L5">
-        <v>13568450</v>
+        <v>1530900</v>
       </c>
       <c r="M5" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O5" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -1604,34 +1616,34 @@
         <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E6" t="s">
         <v>224</v>
       </c>
       <c r="F6">
-        <v>42071.0413</v>
+        <v>72676.1107896</v>
       </c>
       <c r="H6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="J6" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L6">
-        <v>42071041.3</v>
+        <v>72676110.7896</v>
       </c>
       <c r="M6" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N6" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O6" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -1648,34 +1660,34 @@
         <v>189</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E7" t="s">
         <v>224</v>
       </c>
       <c r="F7">
-        <v>2344.0244</v>
+        <v>21662.09888</v>
       </c>
       <c r="H7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="J7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L7">
-        <v>2344024.4</v>
+        <v>21662098.88</v>
       </c>
       <c r="M7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -1692,34 +1704,34 @@
         <v>189</v>
       </c>
       <c r="D8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E8" t="s">
         <v>224</v>
       </c>
       <c r="F8">
-        <v>569009.5848</v>
+        <v>27653.22904</v>
       </c>
       <c r="H8" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="J8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L8">
-        <v>569009584.8</v>
+        <v>27653229.04</v>
       </c>
       <c r="M8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O8" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>
@@ -1736,34 +1748,34 @@
         <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E9" t="s">
         <v>224</v>
       </c>
       <c r="F9">
-        <v>86225.1173956</v>
+        <v>121071.915388</v>
       </c>
       <c r="H9" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="J9" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K9" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L9">
-        <v>86225117.39559999</v>
+        <v>121071915.388</v>
       </c>
       <c r="M9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N9" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O9" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
@@ -1780,34 +1792,34 @@
         <v>189</v>
       </c>
       <c r="D10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F10">
-        <v>674524386</v>
+        <v>11770.3702287417</v>
       </c>
       <c r="H10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="J10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L10">
-        <v>2428287789.6</v>
+        <v>11770370.2287417</v>
       </c>
       <c r="M10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O10" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -1824,34 +1836,34 @@
         <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E11" t="s">
         <v>224</v>
       </c>
       <c r="F11">
-        <v>2557832</v>
-      </c>
-      <c r="H11" t="s">
-        <v>241</v>
+        <v>23524.436671511</v>
+      </c>
+      <c r="I11" t="s">
+        <v>272</v>
       </c>
       <c r="J11" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L11">
-        <v>2557832000</v>
+        <v>23524436.671511</v>
       </c>
       <c r="M11" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N11" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O11" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P11" t="b">
         <v>0</v>
@@ -1868,34 +1880,34 @@
         <v>189</v>
       </c>
       <c r="D12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E12" t="s">
         <v>224</v>
       </c>
       <c r="F12">
-        <v>42833</v>
+        <v>287042.447231542</v>
       </c>
       <c r="H12" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J12" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K12" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L12">
-        <v>42833000</v>
+        <v>287042447.2315421</v>
       </c>
       <c r="M12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N12" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O12" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
@@ -1912,34 +1924,34 @@
         <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E13" t="s">
         <v>224</v>
       </c>
       <c r="F13">
-        <v>162805</v>
+        <v>2557832</v>
       </c>
       <c r="H13" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="J13" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K13" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L13">
-        <v>162805000</v>
+        <v>2557832000</v>
       </c>
       <c r="M13" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N13" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O13" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -1956,34 +1968,37 @@
         <v>189</v>
       </c>
       <c r="D14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F14">
-        <v>1463.60937</v>
+        <v>80.95999999999999</v>
+      </c>
+      <c r="G14" t="s">
+        <v>236</v>
       </c>
       <c r="H14" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="J14" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="K14" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L14">
-        <v>1463609.37</v>
+        <v>80960000</v>
       </c>
       <c r="M14" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N14" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="O14" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
@@ -2000,37 +2015,34 @@
         <v>189</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F15">
-        <v>4145000</v>
-      </c>
-      <c r="G15" t="s">
-        <v>235</v>
+        <v>3947008</v>
       </c>
       <c r="H15" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="J15" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K15" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L15">
-        <v>14922000000</v>
+        <v>3947008000</v>
       </c>
       <c r="M15" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O15" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
@@ -2047,34 +2059,34 @@
         <v>189</v>
       </c>
       <c r="D16" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F16">
-        <v>2785135</v>
+        <v>2829</v>
       </c>
       <c r="H16" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="J16" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="K16" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L16">
-        <v>378542030.2939668</v>
+        <v>101575245</v>
       </c>
       <c r="M16" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="N16" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O16" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
@@ -2091,16 +2103,16 @@
         <v>189</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F17">
-        <v>144321</v>
+        <v>385327.7974</v>
       </c>
       <c r="H17" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J17" t="s">
         <v>276</v>
@@ -2109,16 +2121,16 @@
         <v>294</v>
       </c>
       <c r="L17">
-        <v>17908178.0536758</v>
+        <v>385327797.4</v>
       </c>
       <c r="M17" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O17" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
@@ -2135,34 +2147,34 @@
         <v>189</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F18">
-        <v>494423</v>
+        <v>1683653</v>
       </c>
       <c r="H18" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="J18" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K18" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L18">
-        <v>42813081.77158993</v>
+        <v>1683653000</v>
       </c>
       <c r="M18" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N18" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O18" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
@@ -2179,34 +2191,34 @@
         <v>189</v>
       </c>
       <c r="D19" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F19">
-        <v>137676647</v>
+        <v>129455</v>
       </c>
       <c r="H19" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="J19" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K19" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L19">
-        <v>495635929.2</v>
+        <v>129455000</v>
       </c>
       <c r="M19" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N19" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O19" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P19" t="b">
         <v>0</v>
@@ -2223,37 +2235,34 @@
         <v>189</v>
       </c>
       <c r="D20" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E20" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F20">
-        <v>80.95999999999999</v>
-      </c>
-      <c r="G20" t="s">
-        <v>236</v>
+        <v>211308</v>
       </c>
       <c r="H20" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="J20" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K20" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L20">
-        <v>80960000</v>
+        <v>211308000</v>
       </c>
       <c r="M20" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O20" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P20" t="b">
         <v>0</v>
@@ -2270,37 +2279,34 @@
         <v>189</v>
       </c>
       <c r="D21" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F21">
-        <v>0.368</v>
-      </c>
-      <c r="G21" t="s">
-        <v>236</v>
+        <v>1188</v>
       </c>
       <c r="H21" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="J21" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K21" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L21">
-        <v>368000</v>
+        <v>42655140</v>
       </c>
       <c r="M21" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O21" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P21" t="b">
         <v>0</v>
@@ -2317,37 +2323,34 @@
         <v>189</v>
       </c>
       <c r="D22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F22">
-        <v>10.12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>236</v>
+        <v>13849</v>
       </c>
       <c r="H22" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="J22" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="K22" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="L22">
-        <v>10120000</v>
+        <v>497248345</v>
       </c>
       <c r="M22" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O22" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P22" t="b">
         <v>0</v>
@@ -2364,34 +2367,34 @@
         <v>189</v>
       </c>
       <c r="D23" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E23" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F23">
-        <v>1968</v>
+        <v>391146</v>
       </c>
       <c r="H23" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="J23" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K23" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L23">
-        <v>1968000000</v>
+        <v>391146000</v>
       </c>
       <c r="M23" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N23" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O23" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P23" t="b">
         <v>0</v>
@@ -2408,34 +2411,34 @@
         <v>189</v>
       </c>
       <c r="D24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F24">
-        <v>830958937</v>
+        <v>91423</v>
       </c>
       <c r="H24" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="J24" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K24" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L24">
-        <v>2991452173.2</v>
+        <v>91423000</v>
       </c>
       <c r="M24" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N24" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O24" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P24" t="b">
         <v>0</v>
@@ -2452,34 +2455,34 @@
         <v>189</v>
       </c>
       <c r="D25" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E25" t="s">
         <v>224</v>
       </c>
       <c r="F25">
-        <v>3947008</v>
-      </c>
-      <c r="H25" t="s">
-        <v>245</v>
+        <v>3590887</v>
+      </c>
+      <c r="I25" t="s">
+        <v>273</v>
       </c>
       <c r="J25" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K25" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L25">
-        <v>3947008000</v>
+        <v>3590887000</v>
       </c>
       <c r="M25" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N25" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O25" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P25" t="b">
         <v>0</v>
@@ -2496,34 +2499,34 @@
         <v>189</v>
       </c>
       <c r="D26" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E26" t="s">
         <v>224</v>
       </c>
       <c r="F26">
-        <v>65074</v>
+        <v>1944158</v>
       </c>
       <c r="H26" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="J26" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K26" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L26">
-        <v>65074000</v>
+        <v>1944158000</v>
       </c>
       <c r="M26" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N26" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O26" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P26" t="b">
         <v>0</v>
@@ -2540,37 +2543,31 @@
         <v>189</v>
       </c>
       <c r="D27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E27" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F27">
-        <v>71904</v>
+        <v>68884</v>
       </c>
       <c r="H27" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="J27" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="K27" t="s">
-        <v>292</v>
-      </c>
-      <c r="L27">
-        <v>71904000</v>
+        <v>303</v>
       </c>
       <c r="M27" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="N27" t="s">
-        <v>314</v>
-      </c>
-      <c r="O27" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2584,34 +2581,34 @@
         <v>189</v>
       </c>
       <c r="D28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E28" t="s">
         <v>224</v>
       </c>
       <c r="F28">
-        <v>182468</v>
+        <v>308614.730821</v>
       </c>
       <c r="H28" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J28" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K28" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L28">
-        <v>182468000</v>
+        <v>308614730.821</v>
       </c>
       <c r="M28" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N28" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O28" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P28" t="b">
         <v>0</v>
@@ -2628,34 +2625,34 @@
         <v>189</v>
       </c>
       <c r="D29" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F29">
-        <v>2829</v>
+        <v>4761600.1</v>
       </c>
       <c r="H29" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="J29" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K29" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="L29">
-        <v>101575245</v>
+        <v>170965251.5905</v>
       </c>
       <c r="M29" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="N29" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O29" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P29" t="b">
         <v>0</v>
@@ -2672,34 +2669,34 @@
         <v>189</v>
       </c>
       <c r="D30" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E30" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F30">
-        <v>369</v>
-      </c>
-      <c r="H30" t="s">
-        <v>246</v>
+        <v>623021.8686160001</v>
+      </c>
+      <c r="I30" t="s">
+        <v>272</v>
       </c>
       <c r="J30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K30" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L30">
-        <v>12095820</v>
+        <v>623021868.6160001</v>
       </c>
       <c r="M30" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O30" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P30" t="b">
         <v>0</v>
@@ -2716,34 +2713,34 @@
         <v>189</v>
       </c>
       <c r="D31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F31">
-        <v>2528</v>
+        <v>42378137.86</v>
       </c>
       <c r="H31" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="J31" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K31" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="L31">
-        <v>57828505.6</v>
+        <v>1521587039.8633</v>
       </c>
       <c r="M31" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="N31" t="s">
         <v>319</v>
       </c>
       <c r="O31" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P31" t="b">
         <v>0</v>
@@ -2760,37 +2757,34 @@
         <v>189</v>
       </c>
       <c r="D32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F32">
-        <v>34190.62</v>
-      </c>
-      <c r="G32" t="s">
-        <v>237</v>
+        <v>1361713.858312</v>
       </c>
       <c r="H32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J32" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K32" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L32">
-        <v>123086232</v>
+        <v>1361713858.312</v>
       </c>
       <c r="M32" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N32" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O32" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P32" t="b">
         <v>0</v>
@@ -2801,43 +2795,40 @@
         <v>47</v>
       </c>
       <c r="B33">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C33" t="s">
         <v>189</v>
       </c>
       <c r="D33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E33" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F33">
-        <v>38555.38</v>
-      </c>
-      <c r="G33" t="s">
-        <v>237</v>
+        <v>3116555.8</v>
       </c>
       <c r="H33" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="J33" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="K33" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="L33">
-        <v>138799368</v>
+        <v>111899935.999</v>
       </c>
       <c r="M33" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N33" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="O33" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P33" t="b">
         <v>0</v>
@@ -2854,34 +2845,34 @@
         <v>189</v>
       </c>
       <c r="D34" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E34" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F34">
-        <v>21662.09888</v>
+        <v>432</v>
       </c>
       <c r="H34" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="J34" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="K34" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="L34">
-        <v>21662098.88</v>
+        <v>432000000</v>
       </c>
       <c r="M34" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N34" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="O34" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P34" t="b">
         <v>0</v>
@@ -2898,34 +2889,34 @@
         <v>189</v>
       </c>
       <c r="D35" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E35" t="s">
         <v>224</v>
       </c>
       <c r="F35">
-        <v>385327.7974</v>
-      </c>
-      <c r="H35" t="s">
-        <v>247</v>
+        <v>131655</v>
+      </c>
+      <c r="I35" t="s">
+        <v>274</v>
       </c>
       <c r="J35" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="K35" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="L35">
-        <v>385327797.4</v>
+        <v>131655000</v>
       </c>
       <c r="M35" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N35" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O35" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P35" t="b">
         <v>0</v>
@@ -2942,34 +2933,37 @@
         <v>189</v>
       </c>
       <c r="D36" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E36" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F36">
-        <v>10018.1179</v>
-      </c>
-      <c r="H36" t="s">
-        <v>247</v>
+        <v>387.2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>236</v>
+      </c>
+      <c r="I36" t="s">
+        <v>275</v>
       </c>
       <c r="J36" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="K36" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="L36">
-        <v>10018117.9</v>
+        <v>387200000</v>
       </c>
       <c r="M36" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N36" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="O36" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P36" t="b">
         <v>0</v>
@@ -2986,34 +2980,34 @@
         <v>189</v>
       </c>
       <c r="D37" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E37" t="s">
         <v>224</v>
       </c>
       <c r="F37">
-        <v>142393.17415</v>
-      </c>
-      <c r="H37" t="s">
-        <v>247</v>
+        <v>384285.8</v>
+      </c>
+      <c r="I37" t="s">
+        <v>271</v>
       </c>
       <c r="J37" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K37" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L37">
-        <v>142393174.15</v>
+        <v>384285800</v>
       </c>
       <c r="M37" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N37" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O37" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P37" t="b">
         <v>0</v>
@@ -3030,34 +3024,34 @@
         <v>189</v>
       </c>
       <c r="D38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E38" t="s">
         <v>224</v>
       </c>
       <c r="F38">
-        <v>892229.95044</v>
+        <v>206946</v>
       </c>
       <c r="H38" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J38" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K38" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L38">
-        <v>892229950.4400001</v>
+        <v>206946000</v>
       </c>
       <c r="M38" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N38" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O38" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P38" t="b">
         <v>0</v>
@@ -3074,34 +3068,34 @@
         <v>189</v>
       </c>
       <c r="D39" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E39" t="s">
         <v>224</v>
       </c>
       <c r="F39">
-        <v>3531.1068</v>
+        <v>140100</v>
       </c>
       <c r="H39" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="J39" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="K39" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L39">
-        <v>3531106.8</v>
+        <v>140100000</v>
       </c>
       <c r="M39" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N39" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O39" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P39" t="b">
         <v>0</v>
@@ -3118,34 +3112,34 @@
         <v>189</v>
       </c>
       <c r="D40" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E40" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F40">
-        <v>1683653</v>
+        <v>2785135</v>
       </c>
       <c r="H40" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="J40" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="K40" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="L40">
-        <v>1683653000</v>
+        <v>378542030.2939668</v>
       </c>
       <c r="M40" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N40" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="O40" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P40" t="b">
         <v>0</v>
@@ -3162,34 +3156,34 @@
         <v>189</v>
       </c>
       <c r="D41" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E41" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F41">
-        <v>38791</v>
+        <v>409793</v>
       </c>
       <c r="H41" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="J41" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="K41" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="L41">
-        <v>38791000</v>
+        <v>55697075.44526765</v>
       </c>
       <c r="M41" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N41" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="O41" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P41" t="b">
         <v>0</v>
@@ -3206,34 +3200,34 @@
         <v>189</v>
       </c>
       <c r="D42" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E42" t="s">
         <v>224</v>
       </c>
       <c r="F42">
-        <v>186977</v>
+        <v>191632</v>
       </c>
       <c r="H42" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="J42" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="K42" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="L42">
-        <v>186977000</v>
+        <v>191632000</v>
       </c>
       <c r="M42" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N42" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O42" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P42" t="b">
         <v>0</v>
@@ -3250,34 +3244,34 @@
         <v>189</v>
       </c>
       <c r="D43" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E43" t="s">
         <v>224</v>
       </c>
       <c r="F43">
-        <v>453</v>
+        <v>181</v>
       </c>
       <c r="H43" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="J43" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="K43" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="L43">
-        <v>453000</v>
+        <v>181000</v>
       </c>
       <c r="M43" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N43" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O43" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P43" t="b">
         <v>0</v>
@@ -3294,34 +3288,34 @@
         <v>189</v>
       </c>
       <c r="D44" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E44" t="s">
         <v>224</v>
       </c>
       <c r="F44">
-        <v>1695665</v>
-      </c>
-      <c r="H44" t="s">
-        <v>248</v>
+        <v>4889.799999999999</v>
+      </c>
+      <c r="I44" t="s">
+        <v>271</v>
       </c>
       <c r="J44" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K44" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L44">
-        <v>1695665000</v>
+        <v>4889799.999999999</v>
       </c>
       <c r="M44" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N44" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O44" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P44" t="b">
         <v>0</v>
@@ -3338,34 +3332,34 @@
         <v>189</v>
       </c>
       <c r="D45" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E45" t="s">
         <v>225</v>
       </c>
       <c r="F45">
-        <v>178921745</v>
+        <v>1968</v>
       </c>
       <c r="H45" t="s">
         <v>249</v>
       </c>
       <c r="J45" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="K45" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L45">
-        <v>644118282</v>
+        <v>1968000000</v>
       </c>
       <c r="M45" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N45" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O45" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P45" t="b">
         <v>0</v>
@@ -3382,34 +3376,34 @@
         <v>189</v>
       </c>
       <c r="D46" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E46" t="s">
         <v>224</v>
       </c>
       <c r="F46">
-        <v>129455</v>
+        <v>2919222</v>
       </c>
       <c r="H46" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="J46" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="K46" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="L46">
-        <v>129455000</v>
+        <v>2919222000</v>
       </c>
       <c r="M46" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N46" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O46" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P46" t="b">
         <v>0</v>
@@ -3426,34 +3420,34 @@
         <v>189</v>
       </c>
       <c r="D47" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E47" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F47">
-        <v>11047</v>
-      </c>
-      <c r="H47" t="s">
-        <v>249</v>
+        <v>764</v>
+      </c>
+      <c r="I47" t="s">
+        <v>275</v>
       </c>
       <c r="J47" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="K47" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L47">
-        <v>11047000</v>
+        <v>764000000</v>
       </c>
       <c r="M47" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N47" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="O47" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P47" t="b">
         <v>0</v>
@@ -3470,34 +3464,34 @@
         <v>189</v>
       </c>
       <c r="D48" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E48" t="s">
         <v>224</v>
       </c>
       <c r="F48">
-        <v>1347</v>
+        <v>86225.1173956</v>
       </c>
       <c r="H48" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="J48" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K48" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L48">
-        <v>1347000</v>
+        <v>86225117.39559999</v>
       </c>
       <c r="M48" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N48" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O48" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P48" t="b">
         <v>0</v>
@@ -3514,34 +3508,37 @@
         <v>189</v>
       </c>
       <c r="D49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E49" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F49">
-        <v>86234</v>
+        <v>34190.62</v>
+      </c>
+      <c r="G49" t="s">
+        <v>237</v>
       </c>
       <c r="H49" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J49" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="K49" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L49">
-        <v>86234000</v>
+        <v>123086232</v>
       </c>
       <c r="M49" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N49" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="O49" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P49" t="b">
         <v>0</v>
@@ -3558,34 +3555,34 @@
         <v>189</v>
       </c>
       <c r="D50" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E50" t="s">
         <v>224</v>
       </c>
       <c r="F50">
-        <v>619000</v>
+        <v>3531.1068</v>
       </c>
       <c r="H50" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J50" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K50" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L50">
-        <v>619000000</v>
+        <v>3531106.8</v>
       </c>
       <c r="M50" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N50" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O50" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P50" t="b">
         <v>0</v>
@@ -3602,34 +3599,34 @@
         <v>189</v>
       </c>
       <c r="D51" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E51" t="s">
         <v>224</v>
       </c>
       <c r="F51">
-        <v>301000</v>
+        <v>717</v>
       </c>
       <c r="H51" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="J51" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K51" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L51">
-        <v>301000000</v>
+        <v>717000</v>
       </c>
       <c r="M51" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N51" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O51" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P51" t="b">
         <v>0</v>
@@ -3646,16 +3643,19 @@
         <v>189</v>
       </c>
       <c r="D52" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E52" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F52">
-        <v>717</v>
+        <v>10684.5</v>
+      </c>
+      <c r="G52" t="s">
+        <v>237</v>
       </c>
       <c r="H52" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J52" t="s">
         <v>281</v>
@@ -3664,16 +3664,16 @@
         <v>299</v>
       </c>
       <c r="L52">
-        <v>717000</v>
+        <v>38464200</v>
       </c>
       <c r="M52" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N52" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="O52" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P52" t="b">
         <v>0</v>
@@ -3690,34 +3690,34 @@
         <v>189</v>
       </c>
       <c r="D53" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E53" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F53">
-        <v>334179</v>
-      </c>
-      <c r="H53" t="s">
-        <v>251</v>
+        <v>164987364</v>
+      </c>
+      <c r="I53" t="s">
+        <v>273</v>
       </c>
       <c r="J53" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K53" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L53">
-        <v>334179000</v>
+        <v>593954510.4</v>
       </c>
       <c r="M53" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N53" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="O53" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P53" t="b">
         <v>0</v>
@@ -3734,34 +3734,34 @@
         <v>189</v>
       </c>
       <c r="D54" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E54" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F54">
-        <v>211308</v>
+        <v>132709926</v>
       </c>
       <c r="H54" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="J54" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K54" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L54">
-        <v>211308000</v>
+        <v>477755733.6</v>
       </c>
       <c r="M54" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N54" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="O54" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P54" t="b">
         <v>0</v>
@@ -3778,34 +3778,34 @@
         <v>189</v>
       </c>
       <c r="D55" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E55" t="s">
         <v>224</v>
       </c>
       <c r="F55">
-        <v>14406</v>
+        <v>3808.98428206273</v>
       </c>
       <c r="H55" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J55" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K55" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L55">
-        <v>14406000</v>
+        <v>3808984.28206273</v>
       </c>
       <c r="M55" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N55" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O55" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P55" t="b">
         <v>0</v>
@@ -3822,34 +3822,34 @@
         <v>189</v>
       </c>
       <c r="D56" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E56" t="s">
         <v>224</v>
       </c>
       <c r="F56">
-        <v>72011</v>
+        <v>56414.6765</v>
       </c>
       <c r="H56" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="J56" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="K56" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L56">
-        <v>72011000</v>
+        <v>56414676.5</v>
       </c>
       <c r="M56" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N56" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O56" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P56" t="b">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>189</v>
       </c>
       <c r="D57" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E57" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F57">
-        <v>409793</v>
-      </c>
-      <c r="H57" t="s">
-        <v>252</v>
+        <v>91025.4822599152</v>
+      </c>
+      <c r="I57" t="s">
+        <v>272</v>
       </c>
       <c r="J57" t="s">
         <v>276</v>
@@ -3884,16 +3884,16 @@
         <v>294</v>
       </c>
       <c r="L57">
-        <v>55697075.44526765</v>
+        <v>91025482.2599152</v>
       </c>
       <c r="M57" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N57" t="s">
         <v>317</v>
       </c>
       <c r="O57" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P57" t="b">
         <v>0</v>
@@ -3910,16 +3910,16 @@
         <v>189</v>
       </c>
       <c r="D58" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E58" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F58">
-        <v>67158</v>
+        <v>5528.5667</v>
       </c>
       <c r="H58" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="J58" t="s">
         <v>276</v>
@@ -3928,16 +3928,16 @@
         <v>294</v>
       </c>
       <c r="L58">
-        <v>8333350.1134884</v>
+        <v>5528566.7</v>
       </c>
       <c r="M58" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N58" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O58" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P58" t="b">
         <v>0</v>
@@ -3954,34 +3954,34 @@
         <v>189</v>
       </c>
       <c r="D59" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E59" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F59">
-        <v>422621</v>
-      </c>
-      <c r="H59" t="s">
-        <v>252</v>
+        <v>452775</v>
+      </c>
+      <c r="I59" t="s">
+        <v>274</v>
       </c>
       <c r="J59" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="K59" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="L59">
-        <v>36595602.20983067</v>
+        <v>1629990</v>
       </c>
       <c r="M59" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N59" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="O59" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P59" t="b">
         <v>0</v>
@@ -3998,34 +3998,34 @@
         <v>189</v>
       </c>
       <c r="D60" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F60">
-        <v>17595388</v>
+        <v>475</v>
       </c>
       <c r="H60" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="J60" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="K60" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="L60">
-        <v>63343396.8</v>
+        <v>475000</v>
       </c>
       <c r="M60" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N60" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O60" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P60" t="b">
         <v>0</v>
@@ -4042,34 +4042,34 @@
         <v>189</v>
       </c>
       <c r="D61" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="E61" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F61">
-        <v>1188</v>
+        <v>569009.5848</v>
       </c>
       <c r="H61" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="J61" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K61" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L61">
-        <v>42655140</v>
+        <v>569009584.8</v>
       </c>
       <c r="M61" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N61" t="s">
         <v>317</v>
       </c>
       <c r="O61" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P61" t="b">
         <v>0</v>
@@ -4086,34 +4086,34 @@
         <v>189</v>
       </c>
       <c r="D62" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E62" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F62">
-        <v>36</v>
+        <v>674524386</v>
       </c>
       <c r="H62" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J62" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K62" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L62">
-        <v>1180080</v>
+        <v>2428287789.6</v>
       </c>
       <c r="M62" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N62" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="O62" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P62" t="b">
         <v>0</v>
@@ -4130,34 +4130,34 @@
         <v>189</v>
       </c>
       <c r="D63" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E63" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F63">
-        <v>1528</v>
+        <v>830958937</v>
       </c>
       <c r="H63" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J63" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K63" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L63">
-        <v>58064</v>
+        <v>2991452173.2</v>
       </c>
       <c r="M63" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N63" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O63" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P63" t="b">
         <v>0</v>
@@ -4174,37 +4174,37 @@
         <v>189</v>
       </c>
       <c r="D64" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E64" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F64">
-        <v>10684.5</v>
+        <v>38555.38</v>
       </c>
       <c r="G64" t="s">
         <v>237</v>
       </c>
       <c r="H64" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J64" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K64" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L64">
-        <v>38464200</v>
+        <v>138799368</v>
       </c>
       <c r="M64" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N64" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="O64" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P64" t="b">
         <v>0</v>
@@ -4221,37 +4221,34 @@
         <v>189</v>
       </c>
       <c r="D65" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E65" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F65">
-        <v>32053.5</v>
-      </c>
-      <c r="G65" t="s">
-        <v>237</v>
+        <v>892229.95044</v>
       </c>
       <c r="H65" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="J65" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K65" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L65">
-        <v>115392600</v>
+        <v>892229950.4400001</v>
       </c>
       <c r="M65" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N65" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O65" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P65" t="b">
         <v>0</v>
@@ -4268,16 +4265,16 @@
         <v>189</v>
       </c>
       <c r="D66" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="E66" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F66">
-        <v>13849</v>
+        <v>1695665</v>
       </c>
       <c r="H66" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J66" t="s">
         <v>282</v>
@@ -4286,16 +4283,16 @@
         <v>300</v>
       </c>
       <c r="L66">
-        <v>497248345</v>
+        <v>1695665000</v>
       </c>
       <c r="M66" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N66" t="s">
         <v>317</v>
       </c>
       <c r="O66" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P66" t="b">
         <v>0</v>
@@ -4312,34 +4309,34 @@
         <v>189</v>
       </c>
       <c r="D67" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E67" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F67">
-        <v>422</v>
+        <v>178921745</v>
       </c>
       <c r="H67" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J67" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K67" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L67">
-        <v>13833160</v>
+        <v>644118282</v>
       </c>
       <c r="M67" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N67" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="O67" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P67" t="b">
         <v>0</v>
@@ -4356,34 +4353,34 @@
         <v>189</v>
       </c>
       <c r="D68" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E68" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F68">
-        <v>326</v>
+        <v>334179</v>
       </c>
       <c r="H68" t="s">
         <v>254</v>
       </c>
       <c r="J68" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K68" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L68">
-        <v>1173600000</v>
+        <v>334179000</v>
       </c>
       <c r="M68" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N68" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="O68" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P68" t="b">
         <v>0</v>
@@ -4400,34 +4397,37 @@
         <v>189</v>
       </c>
       <c r="D69" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E69" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F69">
-        <v>276713</v>
+        <v>32053.5</v>
+      </c>
+      <c r="G69" t="s">
+        <v>237</v>
       </c>
       <c r="H69" t="s">
         <v>255</v>
       </c>
       <c r="J69" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K69" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L69">
-        <v>276713000</v>
+        <v>115392600</v>
       </c>
       <c r="M69" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N69" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="O69" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P69" t="b">
         <v>0</v>
@@ -4450,28 +4450,28 @@
         <v>224</v>
       </c>
       <c r="F70">
-        <v>191632</v>
+        <v>276713</v>
       </c>
       <c r="H70" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="J70" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="K70" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="L70">
-        <v>191632000</v>
+        <v>276713000</v>
       </c>
       <c r="M70" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N70" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O70" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P70" t="b">
         <v>0</v>
@@ -4488,34 +4488,34 @@
         <v>189</v>
       </c>
       <c r="D71" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E71" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F71">
-        <v>181</v>
+        <v>469220285</v>
       </c>
       <c r="H71" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J71" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K71" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L71">
-        <v>181000</v>
+        <v>1689193026</v>
       </c>
       <c r="M71" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N71" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="O71" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P71" t="b">
         <v>0</v>
@@ -4532,34 +4532,34 @@
         <v>189</v>
       </c>
       <c r="D72" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E72" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F72">
-        <v>3549</v>
+        <v>182554670</v>
       </c>
       <c r="H72" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="J72" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K72" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L72">
-        <v>3549000</v>
+        <v>657196812</v>
       </c>
       <c r="M72" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N72" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="O72" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P72" t="b">
         <v>0</v>
@@ -4576,34 +4576,34 @@
         <v>189</v>
       </c>
       <c r="D73" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E73" t="s">
         <v>224</v>
       </c>
       <c r="F73">
-        <v>45</v>
+        <v>509889.6</v>
       </c>
       <c r="H73" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="J73" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K73" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L73">
-        <v>45000</v>
+        <v>509889600</v>
       </c>
       <c r="M73" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N73" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O73" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P73" t="b">
         <v>0</v>
@@ -4620,34 +4620,34 @@
         <v>189</v>
       </c>
       <c r="D74" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E74" t="s">
         <v>224</v>
       </c>
       <c r="F74">
-        <v>187</v>
+        <v>171984.8235</v>
       </c>
       <c r="H74" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="J74" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K74" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L74">
-        <v>187000</v>
+        <v>171984823.5</v>
       </c>
       <c r="M74" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N74" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O74" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P74" t="b">
         <v>0</v>
@@ -4664,34 +4664,34 @@
         <v>189</v>
       </c>
       <c r="D75" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E75" t="s">
         <v>224</v>
       </c>
       <c r="F75">
-        <v>76904</v>
-      </c>
-      <c r="H75" t="s">
-        <v>255</v>
+        <v>723967.2</v>
+      </c>
+      <c r="I75" t="s">
+        <v>272</v>
       </c>
       <c r="J75" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K75" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L75">
-        <v>76904000</v>
+        <v>723967200</v>
       </c>
       <c r="M75" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N75" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O75" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P75" t="b">
         <v>0</v>
@@ -4708,34 +4708,34 @@
         <v>189</v>
       </c>
       <c r="D76" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F76">
-        <v>469220285</v>
+        <v>1274584.3416</v>
       </c>
       <c r="H76" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="J76" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K76" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L76">
-        <v>1689193026</v>
+        <v>1274584341.6</v>
       </c>
       <c r="M76" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N76" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O76" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P76" t="b">
         <v>0</v>
@@ -4746,40 +4746,40 @@
         <v>91</v>
       </c>
       <c r="B77">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C77" t="s">
         <v>189</v>
       </c>
       <c r="D77" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="E77" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F77">
-        <v>391146</v>
+        <v>248298644.3585</v>
       </c>
       <c r="H77" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="J77" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="K77" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="L77">
-        <v>391146000</v>
+        <v>893875119.6906</v>
       </c>
       <c r="M77" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N77" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="O77" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P77" t="b">
         <v>0</v>
@@ -4796,34 +4796,34 @@
         <v>189</v>
       </c>
       <c r="D78" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E78" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F78">
-        <v>6280</v>
+        <v>1233</v>
       </c>
       <c r="H78" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="J78" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="K78" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="L78">
-        <v>6280000</v>
+        <v>1233000000</v>
       </c>
       <c r="M78" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N78" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="O78" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P78" t="b">
         <v>0</v>
@@ -4840,34 +4840,34 @@
         <v>189</v>
       </c>
       <c r="D79" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E79" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F79">
-        <v>8329</v>
-      </c>
-      <c r="H79" t="s">
-        <v>256</v>
+        <v>53673624</v>
+      </c>
+      <c r="I79" t="s">
+        <v>274</v>
       </c>
       <c r="J79" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="K79" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="L79">
-        <v>8329000</v>
+        <v>193225046.4</v>
       </c>
       <c r="M79" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N79" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="O79" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P79" t="b">
         <v>0</v>
@@ -4884,34 +4884,34 @@
         <v>189</v>
       </c>
       <c r="D80" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E80" t="s">
         <v>224</v>
       </c>
       <c r="F80">
-        <v>297435</v>
-      </c>
-      <c r="H80" t="s">
-        <v>256</v>
+        <v>738226.8</v>
+      </c>
+      <c r="I80" t="s">
+        <v>271</v>
       </c>
       <c r="J80" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K80" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L80">
-        <v>297435000</v>
+        <v>738226800</v>
       </c>
       <c r="M80" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N80" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O80" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P80" t="b">
         <v>0</v>
@@ -4928,34 +4928,34 @@
         <v>189</v>
       </c>
       <c r="D81" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E81" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F81">
-        <v>182554670</v>
+        <v>525946.7</v>
       </c>
       <c r="H81" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="J81" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K81" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L81">
-        <v>657196812</v>
+        <v>525946699.9999999</v>
       </c>
       <c r="M81" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N81" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O81" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P81" t="b">
         <v>0</v>
@@ -4972,34 +4972,34 @@
         <v>189</v>
       </c>
       <c r="D82" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="E82" t="s">
         <v>224</v>
       </c>
       <c r="F82">
-        <v>91423</v>
+        <v>960748</v>
       </c>
       <c r="H82" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="J82" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="K82" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="L82">
-        <v>91423000</v>
+        <v>960748000</v>
       </c>
       <c r="M82" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N82" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O82" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P82" t="b">
         <v>0</v>
@@ -5016,34 +5016,34 @@
         <v>189</v>
       </c>
       <c r="D83" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E83" t="s">
         <v>224</v>
       </c>
       <c r="F83">
-        <v>82576</v>
+        <v>619000</v>
       </c>
       <c r="H83" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="J83" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="K83" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="L83">
-        <v>82576000</v>
+        <v>619000000</v>
       </c>
       <c r="M83" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N83" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O83" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P83" t="b">
         <v>0</v>
@@ -5060,34 +5060,34 @@
         <v>189</v>
       </c>
       <c r="D84" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E84" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F84">
-        <v>6440</v>
+        <v>137676647</v>
       </c>
       <c r="H84" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="J84" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="K84" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="L84">
-        <v>6440000</v>
+        <v>495635929.2</v>
       </c>
       <c r="M84" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N84" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="O84" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P84" t="b">
         <v>0</v>
@@ -5104,34 +5104,34 @@
         <v>189</v>
       </c>
       <c r="D85" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E85" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F85">
-        <v>327090</v>
+        <v>17595388</v>
       </c>
       <c r="H85" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="J85" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="K85" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="L85">
-        <v>327090000</v>
+        <v>63343396.8</v>
       </c>
       <c r="M85" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N85" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="O85" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P85" t="b">
         <v>0</v>
@@ -5148,34 +5148,34 @@
         <v>189</v>
       </c>
       <c r="D86" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E86" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F86">
-        <v>658</v>
+        <v>326</v>
       </c>
       <c r="H86" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J86" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="K86" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="L86">
-        <v>658000</v>
+        <v>1173600000</v>
       </c>
       <c r="M86" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N86" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="O86" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P86" t="b">
         <v>0</v>
@@ -5192,37 +5192,34 @@
         <v>189</v>
       </c>
       <c r="D87" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E87" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F87">
-        <v>164987364</v>
-      </c>
-      <c r="I87" t="s">
-        <v>268</v>
+        <v>7075</v>
+      </c>
+      <c r="G87" t="s">
+        <v>238</v>
+      </c>
+      <c r="H87" t="s">
+        <v>260</v>
       </c>
       <c r="J87" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="K87" t="s">
-        <v>292</v>
-      </c>
-      <c r="L87">
-        <v>593954510.4</v>
+        <v>303</v>
       </c>
       <c r="M87" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="N87" t="s">
-        <v>315</v>
-      </c>
-      <c r="O87" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5236,34 +5233,37 @@
         <v>189</v>
       </c>
       <c r="D88" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="E88" t="s">
         <v>224</v>
       </c>
       <c r="F88">
-        <v>3590887</v>
-      </c>
-      <c r="I88" t="s">
-        <v>268</v>
+        <v>4260.6</v>
+      </c>
+      <c r="G88" t="s">
+        <v>235</v>
+      </c>
+      <c r="H88" t="s">
+        <v>245</v>
       </c>
       <c r="J88" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K88" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L88">
-        <v>3590887000</v>
+        <v>4260600</v>
       </c>
       <c r="M88" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N88" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O88" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P88" t="b">
         <v>0</v>
@@ -5286,28 +5286,31 @@
         <v>224</v>
       </c>
       <c r="F89">
-        <v>45318</v>
+        <v>2026.3</v>
+      </c>
+      <c r="G89" t="s">
+        <v>235</v>
       </c>
       <c r="I89" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J89" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K89" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L89">
-        <v>45318000</v>
+        <v>2026300</v>
       </c>
       <c r="M89" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N89" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O89" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P89" t="b">
         <v>0</v>
@@ -5324,34 +5327,37 @@
         <v>189</v>
       </c>
       <c r="D90" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E90" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F90">
-        <v>51161</v>
-      </c>
-      <c r="I90" t="s">
-        <v>268</v>
+        <v>4145000</v>
+      </c>
+      <c r="G90" t="s">
+        <v>239</v>
+      </c>
+      <c r="H90" t="s">
+        <v>270</v>
       </c>
       <c r="J90" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="K90" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="L90">
-        <v>51161000</v>
+        <v>14922000000</v>
       </c>
       <c r="M90" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N90" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="O90" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P90" t="b">
         <v>0</v>
@@ -5368,34 +5374,34 @@
         <v>189</v>
       </c>
       <c r="D91" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E91" t="s">
         <v>224</v>
       </c>
       <c r="F91">
-        <v>7311</v>
-      </c>
-      <c r="I91" t="s">
-        <v>268</v>
+        <v>65074</v>
+      </c>
+      <c r="H91" t="s">
+        <v>250</v>
       </c>
       <c r="J91" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K91" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L91">
-        <v>7311000</v>
+        <v>65074000</v>
       </c>
       <c r="M91" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N91" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O91" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P91" t="b">
         <v>0</v>
@@ -5412,34 +5418,34 @@
         <v>189</v>
       </c>
       <c r="D92" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="E92" t="s">
         <v>224</v>
       </c>
       <c r="F92">
-        <v>235</v>
-      </c>
-      <c r="I92" t="s">
-        <v>268</v>
+        <v>11047</v>
+      </c>
+      <c r="H92" t="s">
+        <v>253</v>
       </c>
       <c r="J92" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K92" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L92">
-        <v>235000</v>
+        <v>11047000</v>
       </c>
       <c r="M92" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N92" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O92" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P92" t="b">
         <v>0</v>
@@ -5456,34 +5462,34 @@
         <v>189</v>
       </c>
       <c r="D93" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="E93" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F93">
-        <v>132709926</v>
+        <v>6280</v>
       </c>
       <c r="H93" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J93" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K93" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L93">
-        <v>477755733.6</v>
+        <v>6280000</v>
       </c>
       <c r="M93" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N93" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O93" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P93" t="b">
         <v>0</v>
@@ -5500,34 +5506,34 @@
         <v>189</v>
       </c>
       <c r="D94" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="E94" t="s">
         <v>224</v>
       </c>
       <c r="F94">
-        <v>1944158</v>
+        <v>82576</v>
       </c>
       <c r="H94" t="s">
         <v>258</v>
       </c>
       <c r="J94" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K94" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L94">
-        <v>1944158000</v>
+        <v>82576000</v>
       </c>
       <c r="M94" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N94" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O94" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P94" t="b">
         <v>0</v>
@@ -5544,34 +5550,34 @@
         <v>189</v>
       </c>
       <c r="D95" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E95" t="s">
         <v>224</v>
       </c>
       <c r="F95">
-        <v>18198</v>
-      </c>
-      <c r="H95" t="s">
-        <v>258</v>
+        <v>45318</v>
+      </c>
+      <c r="I95" t="s">
+        <v>273</v>
       </c>
       <c r="J95" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K95" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L95">
-        <v>18198000</v>
+        <v>45318000</v>
       </c>
       <c r="M95" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N95" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O95" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P95" t="b">
         <v>0</v>
@@ -5588,34 +5594,34 @@
         <v>189</v>
       </c>
       <c r="D96" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E96" t="s">
         <v>224</v>
       </c>
       <c r="F96">
-        <v>5290</v>
+        <v>18198</v>
       </c>
       <c r="H96" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J96" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K96" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L96">
-        <v>5290000</v>
+        <v>18198000</v>
       </c>
       <c r="M96" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N96" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O96" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P96" t="b">
         <v>0</v>
@@ -5632,28 +5638,28 @@
         <v>189</v>
       </c>
       <c r="D97" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E97" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F97">
-        <v>7075</v>
+        <v>690</v>
       </c>
       <c r="H97" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J97" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K97" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M97" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N97" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P97" t="b">
         <v>1</v>
@@ -5670,31 +5676,37 @@
         <v>189</v>
       </c>
       <c r="D98" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="E98" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F98">
-        <v>68884</v>
+        <v>522600</v>
       </c>
       <c r="H98" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J98" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K98" t="s">
-        <v>302</v>
+        <v>304</v>
+      </c>
+      <c r="L98">
+        <v>2090400</v>
       </c>
       <c r="M98" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="N98" t="s">
-        <v>324</v>
+        <v>326</v>
+      </c>
+      <c r="O98" t="s">
+        <v>332</v>
       </c>
       <c r="P98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -5708,31 +5720,37 @@
         <v>189</v>
       </c>
       <c r="D99" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E99" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F99">
-        <v>690</v>
+        <v>14805627</v>
       </c>
       <c r="H99" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J99" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K99" t="s">
-        <v>302</v>
+        <v>304</v>
+      </c>
+      <c r="L99">
+        <v>59222508</v>
       </c>
       <c r="M99" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="N99" t="s">
-        <v>325</v>
+        <v>326</v>
+      </c>
+      <c r="O99" t="s">
+        <v>332</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -5746,31 +5764,37 @@
         <v>189</v>
       </c>
       <c r="D100" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E100" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F100">
-        <v>1557</v>
+        <v>13568.45</v>
       </c>
       <c r="H100" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="J100" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="K100" t="s">
-        <v>302</v>
+        <v>294</v>
+      </c>
+      <c r="L100">
+        <v>13568450</v>
       </c>
       <c r="M100" t="s">
         <v>313</v>
       </c>
       <c r="N100" t="s">
-        <v>326</v>
+        <v>317</v>
+      </c>
+      <c r="O100" t="s">
+        <v>332</v>
       </c>
       <c r="P100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -5784,31 +5808,40 @@
         <v>189</v>
       </c>
       <c r="D101" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="E101" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F101">
-        <v>1362</v>
+        <v>0.368</v>
+      </c>
+      <c r="G101" t="s">
+        <v>236</v>
       </c>
       <c r="H101" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="J101" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K101" t="s">
-        <v>302</v>
+        <v>298</v>
+      </c>
+      <c r="L101">
+        <v>368000</v>
       </c>
       <c r="M101" t="s">
         <v>313</v>
       </c>
       <c r="N101" t="s">
-        <v>327</v>
+        <v>318</v>
+      </c>
+      <c r="O101" t="s">
+        <v>332</v>
       </c>
       <c r="P101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -5822,34 +5855,34 @@
         <v>189</v>
       </c>
       <c r="D102" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="E102" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F102">
-        <v>27653.22904</v>
+        <v>369</v>
       </c>
       <c r="H102" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="J102" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="K102" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="L102">
-        <v>27653229.04</v>
+        <v>12095820</v>
       </c>
       <c r="M102" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N102" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="O102" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P102" t="b">
         <v>0</v>
@@ -5866,34 +5899,34 @@
         <v>189</v>
       </c>
       <c r="D103" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E103" t="s">
         <v>224</v>
       </c>
       <c r="F103">
-        <v>11770.3702287417</v>
+        <v>10018.1179</v>
       </c>
       <c r="H103" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="J103" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K103" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L103">
-        <v>11770370.2287417</v>
+        <v>10018117.9</v>
       </c>
       <c r="M103" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N103" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O103" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P103" t="b">
         <v>0</v>
@@ -5910,34 +5943,34 @@
         <v>189</v>
       </c>
       <c r="D104" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="E104" t="s">
         <v>224</v>
       </c>
       <c r="F104">
-        <v>308614.730821</v>
+        <v>38791</v>
       </c>
       <c r="H104" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="J104" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="K104" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="L104">
-        <v>308614730.821</v>
+        <v>38791000</v>
       </c>
       <c r="M104" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N104" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O104" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P104" t="b">
         <v>0</v>
@@ -5954,34 +5987,34 @@
         <v>189</v>
       </c>
       <c r="D105" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E105" t="s">
         <v>224</v>
       </c>
       <c r="F105">
-        <v>5437.635</v>
+        <v>14406</v>
       </c>
       <c r="H105" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="J105" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="K105" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L105">
-        <v>5437635</v>
+        <v>14406000</v>
       </c>
       <c r="M105" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N105" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O105" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P105" t="b">
         <v>0</v>
@@ -5998,34 +6031,34 @@
         <v>189</v>
       </c>
       <c r="D106" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="E106" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F106">
-        <v>229891.86895</v>
+        <v>36</v>
       </c>
       <c r="H106" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J106" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="K106" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="L106">
-        <v>229891868.95</v>
+        <v>1180080</v>
       </c>
       <c r="M106" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N106" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="O106" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P106" t="b">
         <v>0</v>
@@ -6042,34 +6075,34 @@
         <v>189</v>
       </c>
       <c r="D107" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E107" t="s">
         <v>224</v>
       </c>
       <c r="F107">
-        <v>1483.2</v>
+        <v>3549</v>
       </c>
       <c r="H107" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="J107" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="K107" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="L107">
-        <v>1483200</v>
+        <v>3549000</v>
       </c>
       <c r="M107" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N107" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O107" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P107" t="b">
         <v>0</v>
@@ -6086,37 +6119,31 @@
         <v>189</v>
       </c>
       <c r="D108" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E108" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F108">
-        <v>3808.98428206273</v>
+        <v>1557</v>
       </c>
       <c r="H108" t="s">
         <v>260</v>
       </c>
       <c r="J108" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="K108" t="s">
-        <v>291</v>
-      </c>
-      <c r="L108">
-        <v>3808984.28206273</v>
+        <v>303</v>
       </c>
       <c r="M108" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="N108" t="s">
-        <v>314</v>
-      </c>
-      <c r="O108" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6130,34 +6157,34 @@
         <v>189</v>
       </c>
       <c r="D109" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E109" t="s">
         <v>224</v>
       </c>
       <c r="F109">
-        <v>509889.6</v>
+        <v>5437.635</v>
       </c>
       <c r="H109" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="J109" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K109" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L109">
-        <v>509889600</v>
+        <v>5437635</v>
       </c>
       <c r="M109" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N109" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O109" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P109" t="b">
         <v>0</v>
@@ -6174,34 +6201,34 @@
         <v>189</v>
       </c>
       <c r="D110" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E110" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F110">
-        <v>56414.6765</v>
+        <v>119418.4</v>
       </c>
       <c r="H110" t="s">
         <v>261</v>
       </c>
       <c r="J110" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K110" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L110">
-        <v>56414676.5</v>
+        <v>3914535.152</v>
       </c>
       <c r="M110" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N110" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="O110" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P110" t="b">
         <v>0</v>
@@ -6218,34 +6245,34 @@
         <v>189</v>
       </c>
       <c r="D111" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E111" t="s">
         <v>224</v>
       </c>
       <c r="F111">
-        <v>171984.8235</v>
-      </c>
-      <c r="H111" t="s">
-        <v>261</v>
+        <v>17195.8465</v>
+      </c>
+      <c r="I111" t="s">
+        <v>272</v>
       </c>
       <c r="J111" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="K111" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="L111">
-        <v>171984823.5</v>
+        <v>17195846.5</v>
       </c>
       <c r="M111" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N111" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O111" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P111" t="b">
         <v>0</v>
@@ -6262,34 +6289,34 @@
         <v>189</v>
       </c>
       <c r="D112" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="E112" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F112">
-        <v>4761600.1</v>
+        <v>1147190.1</v>
       </c>
       <c r="H112" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J112" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K112" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L112">
-        <v>170965251.5905</v>
+        <v>37604891.478</v>
       </c>
       <c r="M112" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="N112" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="O112" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P112" t="b">
         <v>0</v>
@@ -6306,34 +6333,34 @@
         <v>189</v>
       </c>
       <c r="D113" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E113" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F113">
-        <v>522600</v>
+        <v>25050.76</v>
       </c>
       <c r="H113" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="J113" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="K113" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="L113">
-        <v>2090400</v>
+        <v>25050760</v>
       </c>
       <c r="M113" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N113" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="O113" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P113" t="b">
         <v>0</v>
@@ -6344,40 +6371,40 @@
         <v>128</v>
       </c>
       <c r="B114">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C114" t="s">
         <v>189</v>
       </c>
       <c r="D114" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E114" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F114">
-        <v>119418.4</v>
+        <v>151631.5</v>
       </c>
       <c r="H114" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J114" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K114" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L114">
-        <v>3914535.152</v>
+        <v>4970480.57</v>
       </c>
       <c r="M114" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="N114" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="O114" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P114" t="b">
         <v>0</v>
@@ -6394,34 +6421,34 @@
         <v>189</v>
       </c>
       <c r="D115" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="E115" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F115">
-        <v>59198</v>
+        <v>12</v>
       </c>
       <c r="H115" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="J115" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K115" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L115">
-        <v>59198000</v>
+        <v>12000000</v>
       </c>
       <c r="M115" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N115" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="O115" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P115" t="b">
         <v>0</v>
@@ -6438,34 +6465,37 @@
         <v>189</v>
       </c>
       <c r="D116" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="E116" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F116">
-        <v>31049.5</v>
-      </c>
-      <c r="H116" t="s">
-        <v>261</v>
+        <v>1.76</v>
+      </c>
+      <c r="G116" t="s">
+        <v>236</v>
+      </c>
+      <c r="I116" t="s">
+        <v>275</v>
       </c>
       <c r="J116" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="K116" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L116">
-        <v>710263.5224</v>
+        <v>1760000</v>
       </c>
       <c r="M116" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N116" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O116" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P116" t="b">
         <v>0</v>
@@ -6482,34 +6512,34 @@
         <v>189</v>
       </c>
       <c r="D117" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E117" t="s">
         <v>224</v>
       </c>
       <c r="F117">
-        <v>23524.436671511</v>
+        <v>2946.1</v>
       </c>
       <c r="I117" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J117" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K117" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L117">
-        <v>23524436.671511</v>
+        <v>2946100</v>
       </c>
       <c r="M117" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N117" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O117" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P117" t="b">
         <v>0</v>
@@ -6526,34 +6556,34 @@
         <v>189</v>
       </c>
       <c r="D118" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="E118" t="s">
         <v>224</v>
       </c>
       <c r="F118">
-        <v>623021.8686160001</v>
-      </c>
-      <c r="I118" t="s">
-        <v>269</v>
+        <v>3350.8</v>
+      </c>
+      <c r="H118" t="s">
+        <v>245</v>
       </c>
       <c r="J118" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K118" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L118">
-        <v>623021868.6160001</v>
+        <v>3350800</v>
       </c>
       <c r="M118" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N118" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O118" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P118" t="b">
         <v>0</v>
@@ -6570,34 +6600,34 @@
         <v>189</v>
       </c>
       <c r="D119" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E119" t="s">
         <v>224</v>
       </c>
       <c r="F119">
-        <v>91025.4822599152</v>
-      </c>
-      <c r="I119" t="s">
-        <v>269</v>
+        <v>2124</v>
+      </c>
+      <c r="H119" t="s">
+        <v>265</v>
       </c>
       <c r="J119" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="K119" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L119">
-        <v>91025482.2599152</v>
+        <v>2124000</v>
       </c>
       <c r="M119" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N119" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O119" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P119" t="b">
         <v>0</v>
@@ -6614,34 +6644,34 @@
         <v>189</v>
       </c>
       <c r="D120" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="E120" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F120">
-        <v>17195.8465</v>
-      </c>
-      <c r="I120" t="s">
-        <v>269</v>
+        <v>144321</v>
+      </c>
+      <c r="H120" t="s">
+        <v>266</v>
       </c>
       <c r="J120" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="K120" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="L120">
-        <v>17195846.5</v>
+        <v>17908178.0536758</v>
       </c>
       <c r="M120" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N120" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="O120" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P120" t="b">
         <v>0</v>
@@ -6658,34 +6688,34 @@
         <v>189</v>
       </c>
       <c r="D121" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E121" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F121">
-        <v>166705</v>
-      </c>
-      <c r="I121" t="s">
-        <v>269</v>
+        <v>67158</v>
+      </c>
+      <c r="H121" t="s">
+        <v>267</v>
       </c>
       <c r="J121" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="K121" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="L121">
-        <v>166705000</v>
+        <v>8333350.1134884</v>
       </c>
       <c r="M121" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N121" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="O121" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P121" t="b">
         <v>0</v>
@@ -6702,34 +6732,34 @@
         <v>189</v>
       </c>
       <c r="D122" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E122" t="s">
         <v>224</v>
       </c>
       <c r="F122">
-        <v>6336.0580703</v>
-      </c>
-      <c r="I122" t="s">
-        <v>269</v>
+        <v>42833</v>
+      </c>
+      <c r="H122" t="s">
+        <v>248</v>
       </c>
       <c r="J122" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K122" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L122">
-        <v>6336058.0703</v>
+        <v>42833000</v>
       </c>
       <c r="M122" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N122" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O122" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P122" t="b">
         <v>0</v>
@@ -6746,34 +6776,34 @@
         <v>189</v>
       </c>
       <c r="D123" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="E123" t="s">
         <v>224</v>
       </c>
       <c r="F123">
-        <v>723967.2</v>
-      </c>
-      <c r="I123" t="s">
-        <v>269</v>
+        <v>71904</v>
+      </c>
+      <c r="H123" t="s">
+        <v>250</v>
       </c>
       <c r="J123" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K123" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L123">
-        <v>723967200</v>
+        <v>71904000</v>
       </c>
       <c r="M123" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N123" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O123" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P123" t="b">
         <v>0</v>
@@ -6790,34 +6820,34 @@
         <v>189</v>
       </c>
       <c r="D124" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E124" t="s">
         <v>224</v>
       </c>
       <c r="F124">
-        <v>2919222</v>
+        <v>1347</v>
       </c>
       <c r="H124" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="J124" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K124" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L124">
-        <v>2919222000</v>
+        <v>1347000</v>
       </c>
       <c r="M124" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N124" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O124" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P124" t="b">
         <v>0</v>
@@ -6834,34 +6864,34 @@
         <v>189</v>
       </c>
       <c r="D125" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="E125" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F125">
-        <v>42378137.86</v>
+        <v>8329</v>
       </c>
       <c r="H125" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="J125" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K125" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L125">
-        <v>1521587039.8633</v>
+        <v>8329000</v>
       </c>
       <c r="M125" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N125" t="s">
         <v>317</v>
       </c>
       <c r="O125" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P125" t="b">
         <v>0</v>
@@ -6878,34 +6908,34 @@
         <v>189</v>
       </c>
       <c r="D126" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E126" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F126">
-        <v>14805627</v>
+        <v>6440</v>
       </c>
       <c r="H126" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J126" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K126" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L126">
-        <v>59222508</v>
+        <v>6440000</v>
       </c>
       <c r="M126" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N126" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="O126" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P126" t="b">
         <v>0</v>
@@ -6922,34 +6952,34 @@
         <v>189</v>
       </c>
       <c r="D127" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="E127" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F127">
-        <v>1147190.1</v>
-      </c>
-      <c r="H127" t="s">
-        <v>262</v>
+        <v>51161</v>
+      </c>
+      <c r="I127" t="s">
+        <v>273</v>
       </c>
       <c r="J127" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K127" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L127">
-        <v>37604891.478</v>
+        <v>51161000</v>
       </c>
       <c r="M127" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N127" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O127" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P127" t="b">
         <v>0</v>
@@ -6966,34 +6996,34 @@
         <v>189</v>
       </c>
       <c r="D128" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E128" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F128">
-        <v>3691412.93</v>
+        <v>5290</v>
       </c>
       <c r="H128" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J128" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K128" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L128">
-        <v>84441809.056336</v>
+        <v>5290000</v>
       </c>
       <c r="M128" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N128" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O128" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P128" t="b">
         <v>0</v>
@@ -7004,40 +7034,40 @@
         <v>143</v>
       </c>
       <c r="B129">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C129" t="s">
         <v>189</v>
       </c>
       <c r="D129" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="E129" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F129">
-        <v>5528.5667</v>
+        <v>640677.799999999</v>
       </c>
       <c r="H129" t="s">
         <v>263</v>
       </c>
       <c r="J129" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="K129" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="L129">
-        <v>5528566.7</v>
+        <v>14655632.81055998</v>
       </c>
       <c r="M129" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N129" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="O129" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P129" t="b">
         <v>0</v>
@@ -7054,34 +7084,34 @@
         <v>189</v>
       </c>
       <c r="D130" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="E130" t="s">
         <v>224</v>
       </c>
       <c r="F130">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="H130" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="J130" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="K130" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="L130">
-        <v>2000</v>
+        <v>45000</v>
       </c>
       <c r="M130" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N130" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O130" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P130" t="b">
         <v>0</v>
@@ -7098,34 +7128,34 @@
         <v>189</v>
       </c>
       <c r="D131" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="E131" t="s">
         <v>224</v>
       </c>
       <c r="F131">
-        <v>121071.915388</v>
+        <v>187</v>
       </c>
       <c r="H131" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="J131" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="K131" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="L131">
-        <v>121071915.388</v>
+        <v>187000</v>
       </c>
       <c r="M131" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N131" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O131" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P131" t="b">
         <v>0</v>
@@ -7142,34 +7172,34 @@
         <v>189</v>
       </c>
       <c r="D132" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="E132" t="s">
         <v>224</v>
       </c>
       <c r="F132">
-        <v>1361713.858312</v>
-      </c>
-      <c r="H132" t="s">
-        <v>263</v>
+        <v>7311</v>
+      </c>
+      <c r="I132" t="s">
+        <v>273</v>
       </c>
       <c r="J132" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K132" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L132">
-        <v>1361713858.312</v>
+        <v>7311000</v>
       </c>
       <c r="M132" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N132" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O132" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P132" t="b">
         <v>0</v>
@@ -7186,34 +7216,34 @@
         <v>189</v>
       </c>
       <c r="D133" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="E133" t="s">
         <v>224</v>
       </c>
       <c r="F133">
-        <v>1274584.3416</v>
+        <v>6344</v>
       </c>
       <c r="H133" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J133" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="K133" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L133">
-        <v>1274584341.6</v>
+        <v>6344000</v>
       </c>
       <c r="M133" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N133" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O133" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P133" t="b">
         <v>0</v>
@@ -7230,34 +7260,34 @@
         <v>189</v>
       </c>
       <c r="D134" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="E134" t="s">
         <v>224</v>
       </c>
       <c r="F134">
-        <v>25050.76</v>
+        <v>162805</v>
       </c>
       <c r="H134" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="J134" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K134" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L134">
-        <v>25050760</v>
+        <v>162805000</v>
       </c>
       <c r="M134" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N134" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O134" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P134" t="b">
         <v>0</v>
@@ -7274,34 +7304,34 @@
         <v>189</v>
       </c>
       <c r="D135" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="E135" t="s">
         <v>224</v>
       </c>
       <c r="F135">
-        <v>80313.18580000001</v>
+        <v>186977</v>
       </c>
       <c r="H135" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="J135" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="K135" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="L135">
-        <v>80313185.80000001</v>
+        <v>186977000</v>
       </c>
       <c r="M135" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N135" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O135" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P135" t="b">
         <v>0</v>
@@ -7312,40 +7342,40 @@
         <v>150</v>
       </c>
       <c r="B136">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C136" t="s">
         <v>189</v>
       </c>
       <c r="D136" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E136" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F136">
-        <v>248298644.3585</v>
+        <v>86234</v>
       </c>
       <c r="H136" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="J136" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="K136" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="L136">
-        <v>893875119.6906</v>
+        <v>86234000</v>
       </c>
       <c r="M136" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N136" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O136" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P136" t="b">
         <v>0</v>
@@ -7356,40 +7386,43 @@
         <v>151</v>
       </c>
       <c r="B137">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C137" t="s">
         <v>189</v>
       </c>
       <c r="D137" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="E137" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F137">
-        <v>3116555.8</v>
+        <v>1528</v>
+      </c>
+      <c r="G137" t="s">
+        <v>240</v>
       </c>
       <c r="H137" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="J137" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K137" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L137">
-        <v>111899935.999</v>
+        <v>58064</v>
       </c>
       <c r="M137" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="N137" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="O137" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P137" t="b">
         <v>0</v>
@@ -7400,40 +7433,40 @@
         <v>152</v>
       </c>
       <c r="B138">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C138" t="s">
         <v>189</v>
       </c>
       <c r="D138" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="E138" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F138">
-        <v>151631.5</v>
+        <v>76904</v>
       </c>
       <c r="H138" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J138" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K138" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="L138">
-        <v>4970480.57</v>
+        <v>76904000</v>
       </c>
       <c r="M138" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N138" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O138" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P138" t="b">
         <v>0</v>
@@ -7444,40 +7477,40 @@
         <v>153</v>
       </c>
       <c r="B139">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C139" t="s">
         <v>189</v>
       </c>
       <c r="D139" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E139" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F139">
-        <v>640677.799999999</v>
+        <v>297435</v>
       </c>
       <c r="H139" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="J139" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="K139" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="L139">
-        <v>14655632.81055998</v>
+        <v>297435000</v>
       </c>
       <c r="M139" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N139" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O139" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P139" t="b">
         <v>0</v>
@@ -7488,40 +7521,40 @@
         <v>154</v>
       </c>
       <c r="B140">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C140" t="s">
         <v>189</v>
       </c>
       <c r="D140" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="E140" t="s">
         <v>224</v>
       </c>
       <c r="F140">
-        <v>307233</v>
+        <v>327090</v>
       </c>
       <c r="H140" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J140" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="K140" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="L140">
-        <v>307233000</v>
+        <v>327090000</v>
       </c>
       <c r="M140" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N140" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O140" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P140" t="b">
         <v>0</v>
@@ -7538,34 +7571,34 @@
         <v>189</v>
       </c>
       <c r="D141" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="E141" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F141">
-        <v>432</v>
+        <v>59198</v>
       </c>
       <c r="H141" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J141" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K141" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L141">
-        <v>432000000</v>
+        <v>59198000</v>
       </c>
       <c r="M141" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N141" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O141" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P141" t="b">
         <v>0</v>
@@ -7582,34 +7615,34 @@
         <v>189</v>
       </c>
       <c r="D142" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="E142" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F142">
-        <v>12</v>
-      </c>
-      <c r="H142" t="s">
-        <v>265</v>
+        <v>166705</v>
+      </c>
+      <c r="I142" t="s">
+        <v>272</v>
       </c>
       <c r="J142" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="K142" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="L142">
-        <v>12000000</v>
+        <v>166705000</v>
       </c>
       <c r="M142" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N142" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O142" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P142" t="b">
         <v>0</v>
@@ -7620,7 +7653,7 @@
         <v>157</v>
       </c>
       <c r="B143">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C143" t="s">
         <v>189</v>
@@ -7629,13 +7662,13 @@
         <v>216</v>
       </c>
       <c r="E143" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F143">
-        <v>1058</v>
+        <v>307233</v>
       </c>
       <c r="H143" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J143" t="s">
         <v>287</v>
@@ -7644,16 +7677,16 @@
         <v>305</v>
       </c>
       <c r="L143">
-        <v>1058000000</v>
+        <v>307233000</v>
       </c>
       <c r="M143" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N143" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O143" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P143" t="b">
         <v>0</v>
@@ -7670,34 +7703,34 @@
         <v>189</v>
       </c>
       <c r="D144" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="E144" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F144">
-        <v>1</v>
-      </c>
-      <c r="H144" t="s">
-        <v>265</v>
+        <v>159325.59885</v>
+      </c>
+      <c r="I144" t="s">
+        <v>271</v>
       </c>
       <c r="J144" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="K144" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="L144">
-        <v>1000000</v>
+        <v>159325598.85</v>
       </c>
       <c r="M144" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N144" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O144" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P144" t="b">
         <v>0</v>
@@ -7714,34 +7747,34 @@
         <v>189</v>
       </c>
       <c r="D145" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E145" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F145">
-        <v>1233</v>
+        <v>63958.3</v>
       </c>
       <c r="H145" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="J145" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="K145" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="L145">
-        <v>1233000000</v>
+        <v>63958300</v>
       </c>
       <c r="M145" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N145" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O145" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P145" t="b">
         <v>0</v>
@@ -7758,34 +7791,34 @@
         <v>189</v>
       </c>
       <c r="D146" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="E146" t="s">
         <v>224</v>
       </c>
       <c r="F146">
-        <v>131655</v>
-      </c>
-      <c r="I146" t="s">
-        <v>270</v>
+        <v>221612</v>
+      </c>
+      <c r="H146" t="s">
+        <v>265</v>
       </c>
       <c r="J146" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K146" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L146">
-        <v>131655000</v>
+        <v>221612000</v>
       </c>
       <c r="M146" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N146" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O146" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P146" t="b">
         <v>0</v>
@@ -7802,34 +7835,34 @@
         <v>189</v>
       </c>
       <c r="D147" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="E147" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F147">
-        <v>452775</v>
-      </c>
-      <c r="I147" t="s">
-        <v>270</v>
+        <v>301000</v>
+      </c>
+      <c r="H147" t="s">
+        <v>269</v>
       </c>
       <c r="J147" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K147" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L147">
-        <v>1629990</v>
+        <v>301000000</v>
       </c>
       <c r="M147" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N147" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O147" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P147" t="b">
         <v>0</v>
@@ -7846,34 +7879,34 @@
         <v>189</v>
       </c>
       <c r="D148" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="E148" t="s">
         <v>225</v>
       </c>
       <c r="F148">
-        <v>53673624</v>
-      </c>
-      <c r="I148" t="s">
-        <v>270</v>
+        <v>1058</v>
+      </c>
+      <c r="H148" t="s">
+        <v>264</v>
       </c>
       <c r="J148" t="s">
         <v>288</v>
       </c>
       <c r="K148" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L148">
-        <v>193225046.4</v>
+        <v>1058000000</v>
       </c>
       <c r="M148" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N148" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O148" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P148" t="b">
         <v>0</v>
@@ -7890,7 +7923,7 @@
         <v>189</v>
       </c>
       <c r="D149" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E149" t="s">
         <v>224</v>
@@ -7899,13 +7932,13 @@
         <v>10277</v>
       </c>
       <c r="G149" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I149" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="J149" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K149" t="s">
         <v>307</v>
@@ -7914,13 +7947,13 @@
         <v>10277000</v>
       </c>
       <c r="M149" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N149" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O149" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P149" t="b">
         <v>0</v>
@@ -7937,34 +7970,34 @@
         <v>189</v>
       </c>
       <c r="D150" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="E150" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F150">
-        <v>40177</v>
-      </c>
-      <c r="I150" t="s">
-        <v>270</v>
+        <v>422</v>
+      </c>
+      <c r="H150" t="s">
+        <v>256</v>
       </c>
       <c r="J150" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K150" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="L150">
-        <v>40177000</v>
+        <v>13833160</v>
       </c>
       <c r="M150" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N150" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="O150" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P150" t="b">
         <v>0</v>
@@ -7981,34 +8014,34 @@
         <v>189</v>
       </c>
       <c r="D151" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="E151" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F151">
-        <v>764</v>
-      </c>
-      <c r="I151" t="s">
-        <v>271</v>
+        <v>42071.0413</v>
+      </c>
+      <c r="H151" t="s">
+        <v>243</v>
       </c>
       <c r="J151" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K151" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L151">
-        <v>764000000</v>
+        <v>42071041.3</v>
       </c>
       <c r="M151" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N151" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O151" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P151" t="b">
         <v>0</v>
@@ -8025,37 +8058,34 @@
         <v>189</v>
       </c>
       <c r="D152" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="E152" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F152">
-        <v>387.2</v>
-      </c>
-      <c r="G152" t="s">
-        <v>236</v>
-      </c>
-      <c r="I152" t="s">
-        <v>271</v>
+        <v>1463.60937</v>
+      </c>
+      <c r="H152" t="s">
+        <v>248</v>
       </c>
       <c r="J152" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K152" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L152">
-        <v>387200000</v>
+        <v>1463609.37</v>
       </c>
       <c r="M152" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N152" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O152" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P152" t="b">
         <v>0</v>
@@ -8072,37 +8102,34 @@
         <v>189</v>
       </c>
       <c r="D153" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="E153" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F153">
-        <v>1.76</v>
-      </c>
-      <c r="G153" t="s">
-        <v>236</v>
-      </c>
-      <c r="I153" t="s">
-        <v>271</v>
+        <v>494423</v>
+      </c>
+      <c r="H153" t="s">
+        <v>266</v>
       </c>
       <c r="J153" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="K153" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="L153">
-        <v>1760000</v>
+        <v>42813081.77158993</v>
       </c>
       <c r="M153" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N153" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="O153" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P153" t="b">
         <v>0</v>
@@ -8119,37 +8146,37 @@
         <v>189</v>
       </c>
       <c r="D154" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="E154" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F154">
-        <v>48.4</v>
+        <v>10.12</v>
       </c>
       <c r="G154" t="s">
         <v>236</v>
       </c>
-      <c r="I154" t="s">
-        <v>271</v>
+      <c r="H154" t="s">
+        <v>249</v>
       </c>
       <c r="J154" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K154" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L154">
-        <v>48400000</v>
+        <v>10120000</v>
       </c>
       <c r="M154" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N154" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O154" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P154" t="b">
         <v>0</v>
@@ -8166,34 +8193,34 @@
         <v>189</v>
       </c>
       <c r="D155" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="E155" t="s">
         <v>224</v>
       </c>
       <c r="F155">
-        <v>738226.8</v>
-      </c>
-      <c r="I155" t="s">
-        <v>272</v>
+        <v>182468</v>
+      </c>
+      <c r="H155" t="s">
+        <v>250</v>
       </c>
       <c r="J155" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="K155" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="L155">
-        <v>738226800</v>
+        <v>182468000</v>
       </c>
       <c r="M155" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N155" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O155" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P155" t="b">
         <v>0</v>
@@ -8210,34 +8237,34 @@
         <v>189</v>
       </c>
       <c r="D156" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E156" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F156">
-        <v>20.7</v>
-      </c>
-      <c r="I156" t="s">
-        <v>272</v>
+        <v>2528</v>
+      </c>
+      <c r="H156" t="s">
+        <v>251</v>
       </c>
       <c r="J156" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="K156" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="L156">
-        <v>20700</v>
+        <v>57828505.6</v>
       </c>
       <c r="M156" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N156" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="O156" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P156" t="b">
         <v>0</v>
@@ -8254,34 +8281,34 @@
         <v>189</v>
       </c>
       <c r="D157" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="E157" t="s">
         <v>224</v>
       </c>
       <c r="F157">
-        <v>384285.8</v>
-      </c>
-      <c r="I157" t="s">
-        <v>272</v>
+        <v>142393.17415</v>
+      </c>
+      <c r="H157" t="s">
+        <v>246</v>
       </c>
       <c r="J157" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="K157" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="L157">
-        <v>384285800</v>
+        <v>142393174.15</v>
       </c>
       <c r="M157" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N157" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O157" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P157" t="b">
         <v>0</v>
@@ -8298,34 +8325,34 @@
         <v>189</v>
       </c>
       <c r="D158" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E158" t="s">
         <v>224</v>
       </c>
       <c r="F158">
-        <v>4889.799999999999</v>
-      </c>
-      <c r="I158" t="s">
-        <v>272</v>
+        <v>453</v>
+      </c>
+      <c r="H158" t="s">
+        <v>252</v>
       </c>
       <c r="J158" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K158" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="L158">
-        <v>4889799.999999999</v>
+        <v>453000</v>
       </c>
       <c r="M158" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N158" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O158" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P158" t="b">
         <v>0</v>
@@ -8342,37 +8369,34 @@
         <v>189</v>
       </c>
       <c r="D159" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E159" t="s">
         <v>224</v>
       </c>
       <c r="F159">
-        <v>2026.3</v>
-      </c>
-      <c r="G159" t="s">
-        <v>239</v>
-      </c>
-      <c r="I159" t="s">
-        <v>272</v>
+        <v>72011</v>
+      </c>
+      <c r="H159" t="s">
+        <v>254</v>
       </c>
       <c r="J159" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K159" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="L159">
-        <v>2026300</v>
+        <v>72011000</v>
       </c>
       <c r="M159" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N159" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O159" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P159" t="b">
         <v>0</v>
@@ -8389,34 +8413,34 @@
         <v>189</v>
       </c>
       <c r="D160" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="E160" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F160">
-        <v>2946.1</v>
-      </c>
-      <c r="I160" t="s">
-        <v>272</v>
+        <v>422621</v>
+      </c>
+      <c r="H160" t="s">
+        <v>267</v>
       </c>
       <c r="J160" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K160" t="s">
         <v>308</v>
       </c>
       <c r="L160">
-        <v>2946100</v>
+        <v>36595602.20983067</v>
       </c>
       <c r="M160" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N160" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="O160" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P160" t="b">
         <v>0</v>
@@ -8433,34 +8457,34 @@
         <v>189</v>
       </c>
       <c r="D161" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="E161" t="s">
         <v>224</v>
       </c>
       <c r="F161">
-        <v>159325.59885</v>
-      </c>
-      <c r="I161" t="s">
-        <v>272</v>
+        <v>658</v>
+      </c>
+      <c r="H161" t="s">
+        <v>258</v>
       </c>
       <c r="J161" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="K161" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="L161">
-        <v>159325598.85</v>
+        <v>658000</v>
       </c>
       <c r="M161" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N161" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O161" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P161" t="b">
         <v>0</v>
@@ -8477,34 +8501,34 @@
         <v>189</v>
       </c>
       <c r="D162" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="E162" t="s">
         <v>224</v>
       </c>
       <c r="F162">
-        <v>525946.7</v>
-      </c>
-      <c r="H162" t="s">
-        <v>266</v>
+        <v>235</v>
+      </c>
+      <c r="I162" t="s">
+        <v>273</v>
       </c>
       <c r="J162" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="K162" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="L162">
-        <v>525946699.9999999</v>
+        <v>235000</v>
       </c>
       <c r="M162" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N162" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O162" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P162" t="b">
         <v>0</v>
@@ -8524,37 +8548,31 @@
         <v>221</v>
       </c>
       <c r="E163" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F163">
-        <v>1530.9</v>
+        <v>1362</v>
       </c>
       <c r="G163" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H163" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J163" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K163" t="s">
-        <v>309</v>
-      </c>
-      <c r="L163">
-        <v>1530900</v>
+        <v>303</v>
       </c>
       <c r="M163" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="N163" t="s">
-        <v>314</v>
-      </c>
-      <c r="O163" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -8568,34 +8586,34 @@
         <v>189</v>
       </c>
       <c r="D164" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="E164" t="s">
         <v>224</v>
       </c>
       <c r="F164">
-        <v>206946</v>
+        <v>229891.86895</v>
       </c>
       <c r="H164" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="J164" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="K164" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="L164">
-        <v>206946000</v>
+        <v>229891868.95</v>
       </c>
       <c r="M164" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N164" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O164" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P164" t="b">
         <v>0</v>
@@ -8612,37 +8630,34 @@
         <v>189</v>
       </c>
       <c r="D165" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E165" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F165">
-        <v>4260.6</v>
-      </c>
-      <c r="G165" t="s">
-        <v>239</v>
+        <v>31049.5</v>
       </c>
       <c r="H165" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="J165" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K165" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L165">
-        <v>4260600</v>
+        <v>710263.5224</v>
       </c>
       <c r="M165" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N165" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="O165" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P165" t="b">
         <v>0</v>
@@ -8659,34 +8674,34 @@
         <v>189</v>
       </c>
       <c r="D166" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="E166" t="s">
         <v>224</v>
       </c>
       <c r="F166">
-        <v>3350.8</v>
-      </c>
-      <c r="H166" t="s">
-        <v>266</v>
+        <v>6336.0580703</v>
+      </c>
+      <c r="I166" t="s">
+        <v>272</v>
       </c>
       <c r="J166" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="K166" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="L166">
-        <v>3350800</v>
+        <v>6336058.0703</v>
       </c>
       <c r="M166" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N166" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O166" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P166" t="b">
         <v>0</v>
@@ -8703,34 +8718,34 @@
         <v>189</v>
       </c>
       <c r="D167" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="E167" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F167">
-        <v>63958.3</v>
+        <v>3691412.93</v>
       </c>
       <c r="H167" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J167" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K167" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L167">
-        <v>63958300</v>
+        <v>84441809.056336</v>
       </c>
       <c r="M167" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N167" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="O167" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P167" t="b">
         <v>0</v>
@@ -8747,34 +8762,34 @@
         <v>189</v>
       </c>
       <c r="D168" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="E168" t="s">
         <v>224</v>
       </c>
       <c r="F168">
-        <v>33</v>
+        <v>80313.18580000001</v>
       </c>
       <c r="H168" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="J168" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="K168" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="L168">
-        <v>33000</v>
+        <v>80313185.80000001</v>
       </c>
       <c r="M168" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N168" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O168" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P168" t="b">
         <v>0</v>
@@ -8791,34 +8806,34 @@
         <v>189</v>
       </c>
       <c r="D169" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="E169" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F169">
-        <v>475</v>
+        <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J169" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="K169" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="L169">
-        <v>475000</v>
+        <v>1000000</v>
       </c>
       <c r="M169" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N169" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="O169" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P169" t="b">
         <v>0</v>
@@ -8835,34 +8850,34 @@
         <v>189</v>
       </c>
       <c r="D170" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="E170" t="s">
         <v>224</v>
       </c>
       <c r="F170">
-        <v>960748</v>
-      </c>
-      <c r="H170" t="s">
-        <v>267</v>
+        <v>40177</v>
+      </c>
+      <c r="I170" t="s">
+        <v>274</v>
       </c>
       <c r="J170" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="K170" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="L170">
-        <v>960748000</v>
+        <v>40177000</v>
       </c>
       <c r="M170" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N170" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O170" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P170" t="b">
         <v>0</v>
@@ -8879,34 +8894,37 @@
         <v>189</v>
       </c>
       <c r="D171" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="E171" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F171">
-        <v>140100</v>
-      </c>
-      <c r="H171" t="s">
-        <v>267</v>
+        <v>48.4</v>
+      </c>
+      <c r="G171" t="s">
+        <v>236</v>
+      </c>
+      <c r="I171" t="s">
+        <v>275</v>
       </c>
       <c r="J171" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K171" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L171">
-        <v>140100000</v>
+        <v>48400000</v>
       </c>
       <c r="M171" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N171" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="O171" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P171" t="b">
         <v>0</v>
@@ -8923,34 +8941,34 @@
         <v>189</v>
       </c>
       <c r="D172" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="E172" t="s">
         <v>224</v>
       </c>
       <c r="F172">
-        <v>2124</v>
+        <v>33</v>
       </c>
       <c r="H172" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="J172" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K172" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L172">
-        <v>2124000</v>
+        <v>33000</v>
       </c>
       <c r="M172" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N172" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O172" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P172" t="b">
         <v>0</v>
@@ -8967,34 +8985,34 @@
         <v>189</v>
       </c>
       <c r="D173" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E173" t="s">
         <v>224</v>
       </c>
       <c r="F173">
-        <v>6344</v>
+        <v>1483.2</v>
       </c>
       <c r="H173" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="J173" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K173" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L173">
-        <v>6344000</v>
+        <v>1483200</v>
       </c>
       <c r="M173" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N173" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O173" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P173" t="b">
         <v>0</v>
@@ -9011,34 +9029,34 @@
         <v>189</v>
       </c>
       <c r="D174" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="E174" t="s">
         <v>224</v>
       </c>
       <c r="F174">
-        <v>221612</v>
+        <v>2344.0244</v>
       </c>
       <c r="H174" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="J174" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K174" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L174">
-        <v>221612000</v>
+        <v>2344024.4</v>
       </c>
       <c r="M174" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N174" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O174" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P174" t="b">
         <v>0</v>
